--- a/study/data/stats/combined/stats-combined-eval-agreement-m3.xlsx
+++ b/study/data/stats/combined/stats-combined-eval-agreement-m3.xlsx
@@ -4,36 +4,36 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="11064" windowWidth="46128" windowHeight="11112"/>
+    <workbookView xWindow="2928" yWindow="1212" windowWidth="46128" windowHeight="19668" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PFEA SRC" sheetId="14" r:id="rId1"/>
-    <sheet name="PFEA T" sheetId="15" r:id="rId2"/>
-    <sheet name="PFEA C" sheetId="16" r:id="rId3"/>
+    <sheet name="PCFMA SRC" sheetId="14" r:id="rId1"/>
+    <sheet name="PCFMA T" sheetId="15" r:id="rId2"/>
+    <sheet name="PCFMA C" sheetId="16" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ADAM_ALL" localSheetId="2">'PFEA C'!#REF!</definedName>
-    <definedName name="ADAM_ALL" localSheetId="0">'PFEA SRC'!$AG$16</definedName>
-    <definedName name="ADAM_ALL" localSheetId="1">'PFEA T'!$S$17</definedName>
+    <definedName name="ADAM_ALL" localSheetId="2">'PCFMA C'!#REF!</definedName>
+    <definedName name="ADAM_ALL" localSheetId="0">'PCFMA SRC'!$AG$16</definedName>
+    <definedName name="ADAM_ALL" localSheetId="1">'PCFMA T'!$S$17</definedName>
     <definedName name="ADAM_ALL">#REF!</definedName>
     <definedName name="ALLALL_CK">#REF!</definedName>
     <definedName name="ALLALL_PERC">#REF!</definedName>
-    <definedName name="KENTON_ALL" localSheetId="2">'PFEA C'!#REF!</definedName>
-    <definedName name="KENTON_ALL" localSheetId="0">'PFEA SRC'!$AG$36</definedName>
-    <definedName name="KENTON_ALL" localSheetId="1">'PFEA T'!$S$37</definedName>
+    <definedName name="KENTON_ALL" localSheetId="2">'PCFMA C'!#REF!</definedName>
+    <definedName name="KENTON_ALL" localSheetId="0">'PCFMA SRC'!$AG$36</definedName>
+    <definedName name="KENTON_ALL" localSheetId="1">'PCFMA T'!$S$37</definedName>
     <definedName name="KENTON_ALL">#REF!</definedName>
-    <definedName name="PERSONA_MODEL_LIST" localSheetId="2">'PFEA C'!#REF!</definedName>
-    <definedName name="PERSONA_MODEL_LIST" localSheetId="0">'PFEA SRC'!$B$3:$C$54</definedName>
-    <definedName name="PERSONA_MODEL_LIST" localSheetId="1">'PFEA T'!$A$4:$B$55</definedName>
+    <definedName name="PERSONA_MODEL_LIST" localSheetId="2">'PCFMA C'!#REF!</definedName>
+    <definedName name="PERSONA_MODEL_LIST" localSheetId="0">'PCFMA SRC'!$B$3:$C$54</definedName>
+    <definedName name="PERSONA_MODEL_LIST" localSheetId="1">'PCFMA T'!$A$4:$B$55</definedName>
     <definedName name="PERSONA_MODEL_LIST">#REF!</definedName>
-    <definedName name="pfef_vanilla_mode1_01" localSheetId="2">'PFEA C'!#REF!</definedName>
-    <definedName name="pfef_vanilla_mode1_01" localSheetId="0">'PFEA SRC'!#REF!</definedName>
-    <definedName name="pfef_vanilla_mode1_01" localSheetId="1">'PFEA T'!#REF!</definedName>
+    <definedName name="pfef_vanilla_mode1_01" localSheetId="2">'PCFMA C'!#REF!</definedName>
+    <definedName name="pfef_vanilla_mode1_01" localSheetId="0">'PCFMA SRC'!#REF!</definedName>
+    <definedName name="pfef_vanilla_mode1_01" localSheetId="1">'PCFMA T'!#REF!</definedName>
     <definedName name="pfef_vanilla_mode1_01">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'PFEA T'!$A$1:$U$60</definedName>
-    <definedName name="SUSAN_ALL" localSheetId="2">'PFEA C'!#REF!</definedName>
-    <definedName name="SUSAN_ALL" localSheetId="0">'PFEA SRC'!$AG$6</definedName>
-    <definedName name="SUSAN_ALL" localSheetId="1">'PFEA T'!$S$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'PCFMA T'!$A$1:$U$60</definedName>
+    <definedName name="SUSAN_ALL" localSheetId="2">'PCFMA C'!#REF!</definedName>
+    <definedName name="SUSAN_ALL" localSheetId="0">'PCFMA SRC'!$AG$6</definedName>
+    <definedName name="SUSAN_ALL" localSheetId="1">'PCFMA T'!$S$7</definedName>
     <definedName name="SUSAN_ALL">#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -353,19 +353,7 @@
     <t>To be exported as separate PDF files</t>
   </si>
   <si>
-    <t>Point Biserial Correlation for Evaluation Agreement</t>
-  </si>
-  <si>
-    <t>Mean rpb (significant only, excl. ALL):</t>
-  </si>
-  <si>
-    <t>Mean rpb (significant only, ALL only):</t>
-  </si>
-  <si>
     <t>Mean rpb (significant only)</t>
-  </si>
-  <si>
-    <t>This table contains values for each combination of Persona, UD-ML Model and Output Tag evaluated, showing the Point Biserial correlation between synthetic evaluations and classification actions entered by the participant.  The higher the correlation, the more accurate the synthetic evaluation was.  Mean values are calculated for rows and columns using only those r values having a significant correlation (p &lt; 0.06); other values are not included in means.  Means are derived via a Fisher Z-Transformation.  Only Mode 1 &amp; 2 evaluations have feedback, and this data only includes items for which the participant entered classification values during the training phase of the study.</t>
   </si>
   <si>
     <t>Phi Coefficient for Mode3 Evaluation Agreement</t>
@@ -405,6 +393,18 @@
   </si>
   <si>
     <t>Note that the low correlation for this reflects that we were unable to generate phi for v4 and v4o as did not have full set of contingency cells (data probably too consistent)</t>
+  </si>
+  <si>
+    <t>Phi Coefficient For Mode3 Agreement</t>
+  </si>
+  <si>
+    <t>This table contains values for each combination of Persona, UD-ML Model and Output Tag evaluated, showing the phi coefficient between Mode 3 synthetic evaluations and classification actions entered by the participant.  The higher the coeffieient, the more accurate the synthetic evaluation was.  Mean values are calculated for rows and columns using only those phi values having a significant correlation (p &lt; 0.06); other values are not included in means.  Means are derived via a Fisher Z-Transformation.  Only Mode 3 evaluations have dichotomous values, and this data only includes items for which the participant entered classification values during the training phase of the study.</t>
+  </si>
+  <si>
+    <t>Mean phi (significant only, excl. ALL):</t>
+  </si>
+  <si>
+    <t>Mean phi (significant only, ALL only):</t>
   </si>
 </sst>
 </file>
@@ -731,25 +731,28 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -758,14 +761,11 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +856,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('PFEA T'!$D$57,'PFEA T'!$G$57,'PFEA T'!$J$57,'PFEA T'!$M$57,'PFEA T'!$P$57)</c:f>
+              <c:f>('PCFMA T'!$D$57,'PCFMA T'!$G$57,'PCFMA T'!$J$57,'PCFMA T'!$M$57,'PCFMA T'!$P$57)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -879,7 +879,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('PFEA SRC'!$G$57,'PFEA SRC'!$L$57,'PFEA SRC'!$Q$57,'PFEA SRC'!$V$57,'PFEA SRC'!$AA$57)</c:f>
+              <c:f>('PCFMA SRC'!$G$57,'PCFMA SRC'!$L$57,'PCFMA SRC'!$Q$57,'PCFMA SRC'!$V$57,'PCFMA SRC'!$AA$57)</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -904,24 +904,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="202374528"/>
-        <c:axId val="202609792"/>
+        <c:axId val="51368320"/>
+        <c:axId val="51369856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202374528"/>
+        <c:axId val="51368320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202609792"/>
+        <c:crossAx val="51369856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202609792"/>
+        <c:axId val="51369856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -931,7 +931,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202374528"/>
+        <c:crossAx val="51368320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -941,8 +941,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1027,6 +1027,24 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1034,7 +1052,7 @@
                 <a:pPr>
                   <a:defRPr sz="1100" b="1">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
@@ -1046,7 +1064,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('PFEA T'!$D$57,'PFEA T'!$G$57,'PFEA T'!$J$57,'PFEA T'!$M$57,'PFEA T'!$P$57)</c:f>
+              <c:f>('PCFMA T'!$D$57,'PCFMA T'!$G$57,'PCFMA T'!$J$57,'PCFMA T'!$M$57,'PCFMA T'!$P$57)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1069,7 +1087,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('PFEA SRC'!$F$62,'PFEA SRC'!$K$61,'PFEA SRC'!$P$62,'PFEA SRC'!$U$62,'PFEA SRC'!$Z$62)</c:f>
+              <c:f>('PCFMA SRC'!$F$62,'PCFMA SRC'!$K$61,'PCFMA SRC'!$P$62,'PCFMA SRC'!$U$62,'PCFMA SRC'!$Z$62)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1094,33 +1112,33 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="213757952"/>
-        <c:axId val="213760256"/>
+        <c:axId val="51538944"/>
+        <c:axId val="51545216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213757952"/>
+        <c:axId val="51538944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213760256"/>
+        <c:crossAx val="51545216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213760256"/>
+        <c:axId val="51545216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.7000000000000004"/>
+          <c:max val="0.70000000000000051"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213757952"/>
+        <c:crossAx val="51538944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1130,8 +1148,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1177,7 +1195,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0523010993766996E-2"/>
+          <c:x val="7.052301099376701E-2"/>
           <c:y val="9.2474038571265543E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1211,7 +1229,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PFEA T'!$B$7:$B$15</c:f>
+              <c:f>'PCFMA T'!$B$7:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1246,7 +1264,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PFEA T'!$S$7:$S$15</c:f>
+              <c:f>'PCFMA T'!$S$7:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1283,11 +1301,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="292586624"/>
-        <c:axId val="292588544"/>
+        <c:axId val="51564544"/>
+        <c:axId val="51566848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292586624"/>
+        <c:axId val="51564544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,24 +1324,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292588544"/>
+        <c:crossAx val="51566848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292588544"/>
+        <c:axId val="51566848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.85000000000000042"/>
+          <c:max val="0.85000000000000053"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292586624"/>
+        <c:crossAx val="51564544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1333,8 +1351,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1414,7 +1432,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PFEA T'!$B$17:$B$27</c:f>
+              <c:f>'PCFMA T'!$B$17:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1455,7 +1473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PFEA T'!$S$17:$S$27</c:f>
+              <c:f>'PCFMA T'!$S$17:$S$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1498,11 +1516,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110484096"/>
-        <c:axId val="110485888"/>
+        <c:axId val="53210496"/>
+        <c:axId val="53329920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110484096"/>
+        <c:axId val="53210496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,14 +1539,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110485888"/>
+        <c:crossAx val="53329920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110485888"/>
+        <c:axId val="53329920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.92"/>
@@ -1538,7 +1556,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110484096"/>
+        <c:crossAx val="53210496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1548,8 +1566,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1595,7 +1613,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.55806368597208089"/>
+          <c:x val="0.55806368597208078"/>
           <c:y val="6.6076008791583957E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1629,7 +1647,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PFEA T'!$B$37:$B$44</c:f>
+              <c:f>'PCFMA T'!$B$37:$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1661,7 +1679,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PFEA T'!$S$37:$S$44</c:f>
+              <c:f>'PCFMA T'!$S$37:$S$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1695,11 +1713,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110563328"/>
-        <c:axId val="110564864"/>
+        <c:axId val="115742208"/>
+        <c:axId val="115748864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110563328"/>
+        <c:axId val="115742208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,14 +1736,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110564864"/>
+        <c:crossAx val="115748864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110564864"/>
+        <c:axId val="115748864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1735,7 +1753,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110563328"/>
+        <c:crossAx val="115742208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1745,8 +1763,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1793,7 +1811,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361354E-2"/>
+          <c:y val="6.3365921852361382E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1826,7 +1844,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PFEA T'!$B$29:$B$35</c:f>
+              <c:f>'PCFMA T'!$B$29:$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1855,7 +1873,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PFEA T'!$S$29:$S$35</c:f>
+              <c:f>'PCFMA T'!$S$29:$S$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1886,11 +1904,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110580864"/>
-        <c:axId val="110582400"/>
+        <c:axId val="193385216"/>
+        <c:axId val="193422080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110580864"/>
+        <c:axId val="193385216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,14 +1927,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110582400"/>
+        <c:crossAx val="193422080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110582400"/>
+        <c:axId val="193422080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1926,7 +1944,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110580864"/>
+        <c:crossAx val="193385216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1936,8 +1954,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1984,7 +2002,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361409E-2"/>
+          <c:y val="6.3365921852361437E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2017,7 +2035,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PFEA T'!$B$46:$B$55</c:f>
+              <c:f>'PCFMA T'!$B$46:$B$55</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2055,7 +2073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PFEA T'!$S$46:$S$55</c:f>
+              <c:f>'PCFMA T'!$S$46:$S$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2095,11 +2113,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110614784"/>
-        <c:axId val="110669824"/>
+        <c:axId val="193469440"/>
+        <c:axId val="196141824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110614784"/>
+        <c:axId val="193469440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,14 +2136,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110669824"/>
+        <c:crossAx val="196141824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110669824"/>
+        <c:axId val="196141824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2135,7 +2153,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110614784"/>
+        <c:crossAx val="193469440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2145,8 +2163,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2653,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2690,8 +2708,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="18">
-      <c r="B1" s="69" t="s">
-        <v>73</v>
+      <c r="B1" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="20"/>
@@ -2720,52 +2738,52 @@
       <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="D3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="22"/>
-      <c r="I3" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
+      <c r="I3" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
       <c r="M3" s="22"/>
-      <c r="N3" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
+      <c r="N3" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
       <c r="R3" s="22"/>
-      <c r="S3" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
+      <c r="S3" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
       <c r="W3" s="22"/>
-      <c r="X3" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AE3" s="68" t="s">
+      <c r="X3" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AE3" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
       <c r="AI3" s="28"/>
       <c r="AJ3" s="11"/>
     </row>
     <row r="4" spans="1:38" s="23" customFormat="1">
       <c r="D4" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>50</v>
@@ -2777,7 +2795,7 @@
         <v>52</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>50</v>
@@ -2789,7 +2807,7 @@
         <v>52</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O4" s="25" t="s">
         <v>50</v>
@@ -2801,7 +2819,7 @@
         <v>52</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T4" s="25" t="s">
         <v>50</v>
@@ -2813,7 +2831,7 @@
         <v>52</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y4" s="25" t="s">
         <v>50</v>
@@ -3406,7 +3424,7 @@
         <v>40</v>
       </c>
       <c r="AL11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="6" customFormat="1">
@@ -6404,7 +6422,7 @@
     </row>
     <row r="61" spans="2:36" s="9" customFormat="1">
       <c r="B61" s="9" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D61" s="36">
         <f>AVERAGEIFS(D:D,C:C, "&lt;&gt;ALL",G:G, "Y")</f>
@@ -6464,7 +6482,7 @@
     </row>
     <row r="62" spans="2:36" s="9" customFormat="1">
       <c r="B62" s="9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>61</v>
@@ -6599,35 +6617,35 @@
         <v>66</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E65" s="42"/>
       <c r="F65" s="42"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J65" s="42"/>
       <c r="K65" s="42"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O65" s="42"/>
       <c r="P65" s="42"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
       <c r="S65" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T65" s="42"/>
       <c r="U65" s="42"/>
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
       <c r="X65" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y65" s="42"/>
       <c r="Z65" s="42"/>
@@ -6702,8 +6720,8 @@
   </sheetPr>
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AB47" sqref="AB47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6733,130 +6751,130 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="9" customHeight="1"/>
     <row r="3" spans="1:21" ht="63.6" customHeight="1">
-      <c r="A3" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="70"/>
+      <c r="A3" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="60"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
-      <c r="A4" s="66" t="str">
-        <f>'PFEA SRC'!B3</f>
+      <c r="A4" s="67" t="str">
+        <f>'PCFMA SRC'!B3</f>
         <v>Persona</v>
       </c>
-      <c r="B4" s="66" t="str">
-        <f>'PFEA SRC'!C3</f>
+      <c r="B4" s="67" t="str">
+        <f>'PCFMA SRC'!C3</f>
         <v>Model</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="67" t="str">
-        <f>'PFEA SRC'!D3</f>
+      <c r="D4" s="68" t="str">
+        <f>'PCFMA SRC'!D3</f>
         <v>vanilla-mode3-01</v>
       </c>
-      <c r="E4" s="67"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="24"/>
-      <c r="G4" s="67" t="str">
-        <f>'PFEA SRC'!I3</f>
+      <c r="G4" s="68" t="str">
+        <f>'PCFMA SRC'!I3</f>
         <v>base-mode3-01</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="24"/>
-      <c r="J4" s="67" t="str">
-        <f>'PFEA SRC'!N3</f>
+      <c r="J4" s="68" t="str">
+        <f>'PCFMA SRC'!N3</f>
         <v>ext-mode3-01</v>
       </c>
-      <c r="K4" s="67"/>
+      <c r="K4" s="68"/>
       <c r="L4" s="24"/>
-      <c r="M4" s="67" t="str">
-        <f>'PFEA SRC'!S3</f>
+      <c r="M4" s="68" t="str">
+        <f>'PCFMA SRC'!S3</f>
         <v>vanilla4-mode3-01</v>
       </c>
-      <c r="N4" s="67"/>
+      <c r="N4" s="68"/>
       <c r="O4" s="24"/>
-      <c r="P4" s="67" t="str">
-        <f>'PFEA SRC'!X3</f>
+      <c r="P4" s="68" t="str">
+        <f>'PCFMA SRC'!X3</f>
         <v>vanilla4o-mode3-01</v>
       </c>
-      <c r="Q4" s="67"/>
+      <c r="Q4" s="68"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="69" t="s">
         <v>65</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" s="23" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="52"/>
       <c r="D5" s="50" t="str">
-        <f>'PFEA SRC'!D4</f>
+        <f>'PCFMA SRC'!D4</f>
         <v>phi</v>
       </c>
       <c r="E5" s="51" t="str">
-        <f>'PFEA SRC'!E4</f>
+        <f>'PCFMA SRC'!E4</f>
         <v>p</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="50" t="str">
-        <f>'PFEA SRC'!I4</f>
+        <f>'PCFMA SRC'!I4</f>
         <v>phi</v>
       </c>
       <c r="H5" s="51" t="str">
-        <f>'PFEA SRC'!J4</f>
+        <f>'PCFMA SRC'!J4</f>
         <v>p</v>
       </c>
       <c r="I5" s="52"/>
       <c r="J5" s="50" t="str">
-        <f>'PFEA SRC'!N4</f>
+        <f>'PCFMA SRC'!N4</f>
         <v>phi</v>
       </c>
       <c r="K5" s="51" t="str">
-        <f>'PFEA SRC'!O4</f>
+        <f>'PCFMA SRC'!O4</f>
         <v>p</v>
       </c>
       <c r="L5" s="52"/>
       <c r="M5" s="50" t="str">
-        <f>'PFEA SRC'!S4</f>
+        <f>'PCFMA SRC'!S4</f>
         <v>phi</v>
       </c>
       <c r="N5" s="51" t="str">
-        <f>'PFEA SRC'!T4</f>
+        <f>'PCFMA SRC'!T4</f>
         <v>p</v>
       </c>
       <c r="O5" s="52"/>
       <c r="P5" s="50" t="str">
-        <f>'PFEA SRC'!X4</f>
+        <f>'PCFMA SRC'!X4</f>
         <v>phi</v>
       </c>
       <c r="Q5" s="51" t="str">
-        <f>'PFEA SRC'!Y4</f>
+        <f>'PCFMA SRC'!Y4</f>
         <v>p</v>
       </c>
-      <c r="S5" s="65"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="29"/>
       <c r="U5" s="12"/>
     </row>
@@ -6883,610 +6901,610 @@
     </row>
     <row r="7" spans="1:21" s="6" customFormat="1">
       <c r="A7" s="7" t="str">
-        <f>'PFEA SRC'!B6</f>
+        <f>'PCFMA SRC'!B6</f>
         <v>Susan</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f>'PFEA SRC'!C6</f>
+        <f>'PCFMA SRC'!C6</f>
         <v>ALL</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="19">
-        <f>'PFEA SRC'!D6</f>
+        <f>'PCFMA SRC'!D6</f>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E7" s="15">
-        <f>'PFEA SRC'!E6</f>
+        <f>'PCFMA SRC'!E6</f>
         <v>0.58340000000000003</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="19">
-        <f>'PFEA SRC'!I6</f>
+        <f>'PCFMA SRC'!I6</f>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="H7" s="15">
-        <f>'PFEA SRC'!J6</f>
+        <f>'PCFMA SRC'!J6</f>
         <v>0</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="19">
-        <f>'PFEA SRC'!N6</f>
+        <f>'PCFMA SRC'!N6</f>
         <v>0.159</v>
       </c>
       <c r="K7" s="15">
-        <f>'PFEA SRC'!O6</f>
+        <f>'PCFMA SRC'!O6</f>
         <v>0</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="19">
-        <f>'PFEA SRC'!S6</f>
+        <f>'PCFMA SRC'!S6</f>
         <v>0.44</v>
       </c>
       <c r="N7" s="15">
-        <f>'PFEA SRC'!T6</f>
+        <f>'PCFMA SRC'!T6</f>
         <v>0</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="19">
-        <f>'PFEA SRC'!X6</f>
+        <f>'PCFMA SRC'!X6</f>
         <v>0.437</v>
       </c>
       <c r="Q7" s="15">
-        <f>'PFEA SRC'!Y6</f>
+        <f>'PCFMA SRC'!Y6</f>
         <v>0</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="56">
-        <f>'PFEA SRC'!AG6</f>
+        <f>'PCFMA SRC'!AG6</f>
         <v>0.29118073020667901</v>
       </c>
       <c r="T7" s="30"/>
       <c r="U7" s="11" t="str">
-        <f>'PFEA SRC'!AJ6</f>
+        <f>'PCFMA SRC'!AJ6</f>
         <v>ALL</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="6" customFormat="1">
       <c r="A8" s="7" t="str">
-        <f>'PFEA SRC'!B7</f>
+        <f>'PCFMA SRC'!B7</f>
         <v>Susan</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f>'PFEA SRC'!C7</f>
+        <f>'PCFMA SRC'!C7</f>
         <v>interested</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="19">
-        <f>'PFEA SRC'!D7</f>
+        <f>'PCFMA SRC'!D7</f>
         <v>0.04</v>
       </c>
       <c r="E8" s="15">
-        <f>'PFEA SRC'!E7</f>
+        <f>'PCFMA SRC'!E7</f>
         <v>0.49530000000000002</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="19">
-        <f>'PFEA SRC'!I7</f>
+        <f>'PCFMA SRC'!I7</f>
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="H8" s="15">
-        <f>'PFEA SRC'!J7</f>
+        <f>'PCFMA SRC'!J7</f>
         <v>0.2823</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="19">
-        <f>'PFEA SRC'!N7</f>
+        <f>'PCFMA SRC'!N7</f>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="K8" s="15">
-        <f>'PFEA SRC'!O7</f>
+        <f>'PCFMA SRC'!O7</f>
         <v>0.67959999999999998</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="19">
-        <f>'PFEA SRC'!S7</f>
+        <f>'PCFMA SRC'!S7</f>
         <v>0.45900000000000002</v>
       </c>
       <c r="N8" s="15">
-        <f>'PFEA SRC'!T7</f>
+        <f>'PCFMA SRC'!T7</f>
         <v>0</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="19">
-        <f>'PFEA SRC'!X7</f>
+        <f>'PCFMA SRC'!X7</f>
         <v>0.33300000000000002</v>
       </c>
       <c r="Q8" s="15">
-        <f>'PFEA SRC'!Y7</f>
+        <f>'PCFMA SRC'!Y7</f>
         <v>0</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="56">
-        <f>'PFEA SRC'!AG7</f>
+        <f>'PCFMA SRC'!AG7</f>
         <v>0.39787450826948512</v>
       </c>
       <c r="T8" s="30">
-        <f>'PFEA SRC'!AI7</f>
+        <f>'PCFMA SRC'!AI7</f>
         <v>0.10669377806280611</v>
       </c>
       <c r="U8" s="11" t="str">
-        <f>'PFEA SRC'!AJ7</f>
+        <f>'PCFMA SRC'!AJ7</f>
         <v>in</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="6" customFormat="1">
       <c r="A9" s="7" t="str">
-        <f>'PFEA SRC'!B8</f>
+        <f>'PCFMA SRC'!B8</f>
         <v>Susan</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f>'PFEA SRC'!C8</f>
+        <f>'PCFMA SRC'!C8</f>
         <v>tennis</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="19">
-        <f>'PFEA SRC'!D8</f>
+        <f>'PCFMA SRC'!D8</f>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="E9" s="15">
-        <f>'PFEA SRC'!E8</f>
+        <f>'PCFMA SRC'!E8</f>
         <v>0.76160000000000005</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="19">
-        <f>'PFEA SRC'!I8</f>
+        <f>'PCFMA SRC'!I8</f>
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f>'PFEA SRC'!J8</f>
+        <f>'PCFMA SRC'!J8</f>
         <v>1</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="19">
-        <f>'PFEA SRC'!N8</f>
+        <f>'PCFMA SRC'!N8</f>
         <v>0.13700000000000001</v>
       </c>
       <c r="K9" s="15">
-        <f>'PFEA SRC'!O8</f>
+        <f>'PCFMA SRC'!O8</f>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="19">
-        <f>'PFEA SRC'!S8</f>
+        <f>'PCFMA SRC'!S8</f>
         <v>0.47199999999999998</v>
       </c>
       <c r="N9" s="15">
-        <f>'PFEA SRC'!T8</f>
+        <f>'PCFMA SRC'!T8</f>
         <v>0</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="19">
-        <f>'PFEA SRC'!X8</f>
+        <f>'PCFMA SRC'!X8</f>
         <v>0.64500000000000002</v>
       </c>
       <c r="Q9" s="15">
-        <f>'PFEA SRC'!Y8</f>
+        <f>'PCFMA SRC'!Y8</f>
         <v>0</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="56">
-        <f>'PFEA SRC'!AG8</f>
+        <f>'PCFMA SRC'!AG8</f>
         <v>0.44013544710444985</v>
       </c>
       <c r="T9" s="30">
-        <f>'PFEA SRC'!AI8</f>
+        <f>'PCFMA SRC'!AI8</f>
         <v>0.14895471689777084</v>
       </c>
       <c r="U9" s="11" t="str">
-        <f>'PFEA SRC'!AJ8</f>
+        <f>'PCFMA SRC'!AJ8</f>
         <v>tn</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="6" customFormat="1">
       <c r="A10" s="7" t="str">
-        <f>'PFEA SRC'!B9</f>
+        <f>'PCFMA SRC'!B9</f>
         <v>Susan</v>
       </c>
       <c r="B10" s="7" t="str">
-        <f>'PFEA SRC'!C9</f>
+        <f>'PCFMA SRC'!C9</f>
         <v>tennis-arrangements</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="19">
-        <f>'PFEA SRC'!D9</f>
+        <f>'PCFMA SRC'!D9</f>
         <v>0.36699999999999999</v>
       </c>
       <c r="E10" s="15">
-        <f>'PFEA SRC'!E9</f>
+        <f>'PCFMA SRC'!E9</f>
         <v>0</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="19">
-        <f>'PFEA SRC'!I9</f>
+        <f>'PCFMA SRC'!I9</f>
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="H10" s="15">
-        <f>'PFEA SRC'!J9</f>
+        <f>'PCFMA SRC'!J9</f>
         <v>0.53700000000000003</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="19">
-        <f>'PFEA SRC'!N9</f>
+        <f>'PCFMA SRC'!N9</f>
         <v>9.4E-2</v>
       </c>
       <c r="K10" s="15">
-        <f>'PFEA SRC'!O9</f>
+        <f>'PCFMA SRC'!O9</f>
         <v>0.1522</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="19">
-        <f>'PFEA SRC'!S9</f>
+        <f>'PCFMA SRC'!S9</f>
         <v>0.24099999999999999</v>
       </c>
       <c r="N10" s="15">
-        <f>'PFEA SRC'!T9</f>
+        <f>'PCFMA SRC'!T9</f>
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="19">
-        <f>'PFEA SRC'!X9</f>
+        <f>'PCFMA SRC'!X9</f>
         <v>0.44900000000000001</v>
       </c>
       <c r="Q10" s="15">
-        <f>'PFEA SRC'!Y9</f>
+        <f>'PCFMA SRC'!Y9</f>
         <v>0</v>
       </c>
       <c r="R10" s="8"/>
       <c r="S10" s="56">
-        <f>'PFEA SRC'!AG9</f>
+        <f>'PCFMA SRC'!AG9</f>
         <v>0.35522565509537701</v>
       </c>
       <c r="T10" s="30">
-        <f>'PFEA SRC'!AI9</f>
+        <f>'PCFMA SRC'!AI9</f>
         <v>6.4044924888698007E-2</v>
       </c>
       <c r="U10" s="11" t="str">
-        <f>'PFEA SRC'!AJ9</f>
+        <f>'PCFMA SRC'!AJ9</f>
         <v>t-a</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="6" customFormat="1">
       <c r="A11" s="7" t="str">
-        <f>'PFEA SRC'!B10</f>
+        <f>'PCFMA SRC'!B10</f>
         <v>Susan</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f>'PFEA SRC'!C10</f>
+        <f>'PCFMA SRC'!C10</f>
         <v>tennis-organising</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="19">
-        <f>'PFEA SRC'!D10</f>
+        <f>'PCFMA SRC'!D10</f>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E11" s="15">
-        <f>'PFEA SRC'!E10</f>
+        <f>'PCFMA SRC'!E10</f>
         <v>0.82920000000000005</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="19">
-        <f>'PFEA SRC'!I10</f>
+        <f>'PCFMA SRC'!I10</f>
         <v>0</v>
       </c>
       <c r="H11" s="15">
-        <f>'PFEA SRC'!J10</f>
+        <f>'PCFMA SRC'!J10</f>
         <v>1</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="19">
-        <f>'PFEA SRC'!N10</f>
+        <f>'PCFMA SRC'!N10</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K11" s="15">
-        <f>'PFEA SRC'!O10</f>
+        <f>'PCFMA SRC'!O10</f>
         <v>0.95030000000000003</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="19">
-        <f>'PFEA SRC'!S10</f>
+        <f>'PCFMA SRC'!S10</f>
         <v>0.121</v>
       </c>
       <c r="N11" s="15">
-        <f>'PFEA SRC'!T10</f>
+        <f>'PCFMA SRC'!T10</f>
         <v>0.1487</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="19">
-        <f>'PFEA SRC'!X10</f>
+        <f>'PCFMA SRC'!X10</f>
         <v>0.20399999999999999</v>
       </c>
       <c r="Q11" s="15">
-        <f>'PFEA SRC'!Y10</f>
+        <f>'PCFMA SRC'!Y10</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="56">
-        <f>'PFEA SRC'!AG10</f>
+        <f>'PCFMA SRC'!AG10</f>
         <v>0.10506222869889631</v>
       </c>
       <c r="T11" s="30">
-        <f>'PFEA SRC'!AI10</f>
+        <f>'PCFMA SRC'!AI10</f>
         <v>-0.1861185015077827</v>
       </c>
       <c r="U11" s="11" t="str">
-        <f>'PFEA SRC'!AJ10</f>
+        <f>'PCFMA SRC'!AJ10</f>
         <v>t-o</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="6" customFormat="1">
       <c r="A12" s="7" t="str">
-        <f>'PFEA SRC'!B11</f>
+        <f>'PCFMA SRC'!B11</f>
         <v>Susan</v>
       </c>
       <c r="B12" s="7" t="str">
-        <f>'PFEA SRC'!C11</f>
+        <f>'PCFMA SRC'!C11</f>
         <v>urgency</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="19">
-        <f>'PFEA SRC'!D11</f>
+        <f>'PCFMA SRC'!D11</f>
         <v>0.112</v>
       </c>
       <c r="E12" s="15">
-        <f>'PFEA SRC'!E11</f>
+        <f>'PCFMA SRC'!E11</f>
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="19">
-        <f>'PFEA SRC'!I11</f>
+        <f>'PCFMA SRC'!I11</f>
         <v>0.188</v>
       </c>
       <c r="H12" s="15">
-        <f>'PFEA SRC'!J11</f>
+        <f>'PCFMA SRC'!J11</f>
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="19">
-        <f>'PFEA SRC'!N11</f>
+        <f>'PCFMA SRC'!N11</f>
         <v>0</v>
       </c>
       <c r="K12" s="15">
-        <f>'PFEA SRC'!O11</f>
+        <f>'PCFMA SRC'!O11</f>
         <v>1</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="19">
-        <f>'PFEA SRC'!S11</f>
+        <f>'PCFMA SRC'!S11</f>
         <v>0.13300000000000001</v>
       </c>
       <c r="N12" s="15">
-        <f>'PFEA SRC'!T11</f>
+        <f>'PCFMA SRC'!T11</f>
         <v>0.1111</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="19">
-        <f>'PFEA SRC'!X11</f>
+        <f>'PCFMA SRC'!X11</f>
         <v>0</v>
       </c>
       <c r="Q12" s="15">
-        <f>'PFEA SRC'!Y11</f>
+        <f>'PCFMA SRC'!Y11</f>
         <v>1</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="56">
-        <f>'PFEA SRC'!AG11</f>
+        <f>'PCFMA SRC'!AG11</f>
         <v>0.15022192106533216</v>
       </c>
       <c r="T12" s="30">
-        <f>'PFEA SRC'!AI11</f>
+        <f>'PCFMA SRC'!AI11</f>
         <v>-0.14095880914134684</v>
       </c>
       <c r="U12" s="11" t="str">
-        <f>'PFEA SRC'!AJ11</f>
+        <f>'PCFMA SRC'!AJ11</f>
         <v>ur</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="6" customFormat="1">
       <c r="A13" s="7" t="str">
-        <f>'PFEA SRC'!B12</f>
+        <f>'PCFMA SRC'!B12</f>
         <v>Susan</v>
       </c>
       <c r="B13" s="7" t="str">
-        <f>'PFEA SRC'!C12</f>
+        <f>'PCFMA SRC'!C12</f>
         <v>work-logistics</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="19">
-        <f>'PFEA SRC'!D12</f>
+        <f>'PCFMA SRC'!D12</f>
         <v>0.14699999999999999</v>
       </c>
       <c r="E13" s="15">
-        <f>'PFEA SRC'!E12</f>
+        <f>'PCFMA SRC'!E12</f>
         <v>1.26E-2</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="19">
-        <f>'PFEA SRC'!I12</f>
+        <f>'PCFMA SRC'!I12</f>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="H13" s="15">
-        <f>'PFEA SRC'!J12</f>
+        <f>'PCFMA SRC'!J12</f>
         <v>0.1371</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="19">
-        <f>'PFEA SRC'!N12</f>
+        <f>'PCFMA SRC'!N12</f>
         <v>0.111</v>
       </c>
       <c r="K13" s="15">
-        <f>'PFEA SRC'!O12</f>
+        <f>'PCFMA SRC'!O12</f>
         <v>0.1017</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="19">
-        <f>'PFEA SRC'!S12</f>
+        <f>'PCFMA SRC'!S12</f>
         <v>0.38</v>
       </c>
       <c r="N13" s="15">
-        <f>'PFEA SRC'!T12</f>
+        <f>'PCFMA SRC'!T12</f>
         <v>0</v>
       </c>
       <c r="O13" s="8"/>
       <c r="P13" s="19">
-        <f>'PFEA SRC'!X12</f>
+        <f>'PCFMA SRC'!X12</f>
         <v>0.32900000000000001</v>
       </c>
       <c r="Q13" s="15">
-        <f>'PFEA SRC'!Y12</f>
+        <f>'PCFMA SRC'!Y12</f>
         <v>0</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="56">
-        <f>'PFEA SRC'!AG12</f>
+        <f>'PCFMA SRC'!AG12</f>
         <v>0.28820996228278362</v>
       </c>
       <c r="T13" s="30">
-        <f>'PFEA SRC'!AI12</f>
+        <f>'PCFMA SRC'!AI12</f>
         <v>-2.9707679238953899E-3</v>
       </c>
       <c r="U13" s="11" t="str">
-        <f>'PFEA SRC'!AJ12</f>
+        <f>'PCFMA SRC'!AJ12</f>
         <v>w-l</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="6" customFormat="1">
       <c r="A14" s="7" t="str">
-        <f>'PFEA SRC'!B13</f>
+        <f>'PCFMA SRC'!B13</f>
         <v>Susan</v>
       </c>
       <c r="B14" s="7" t="str">
-        <f>'PFEA SRC'!C13</f>
+        <f>'PCFMA SRC'!C13</f>
         <v>work-pers</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="19">
-        <f>'PFEA SRC'!D13</f>
+        <f>'PCFMA SRC'!D13</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E14" s="15">
-        <f>'PFEA SRC'!E13</f>
+        <f>'PCFMA SRC'!E13</f>
         <v>0.67030000000000001</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="19">
-        <f>'PFEA SRC'!I13</f>
+        <f>'PCFMA SRC'!I13</f>
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="H14" s="15">
-        <f>'PFEA SRC'!J13</f>
+        <f>'PCFMA SRC'!J13</f>
         <v>0.15809999999999999</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="19">
-        <f>'PFEA SRC'!N13</f>
+        <f>'PCFMA SRC'!N13</f>
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="K14" s="15">
-        <f>'PFEA SRC'!O13</f>
+        <f>'PCFMA SRC'!O13</f>
         <v>0.33050000000000002</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="19">
-        <f>'PFEA SRC'!S13</f>
+        <f>'PCFMA SRC'!S13</f>
         <v>0.33600000000000002</v>
       </c>
       <c r="N14" s="15">
-        <f>'PFEA SRC'!T13</f>
+        <f>'PCFMA SRC'!T13</f>
         <v>1E-4</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="19">
-        <f>'PFEA SRC'!X13</f>
+        <f>'PCFMA SRC'!X13</f>
         <v>0.29699999999999999</v>
       </c>
       <c r="Q14" s="15">
-        <f>'PFEA SRC'!Y13</f>
+        <f>'PCFMA SRC'!Y13</f>
         <v>0</v>
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="56">
-        <f>'PFEA SRC'!AG13</f>
+        <f>'PCFMA SRC'!AG13</f>
         <v>0.23609350233554724</v>
       </c>
       <c r="T14" s="30">
-        <f>'PFEA SRC'!AI13</f>
+        <f>'PCFMA SRC'!AI13</f>
         <v>-5.5087227871131766E-2</v>
       </c>
       <c r="U14" s="11" t="str">
-        <f>'PFEA SRC'!AJ13</f>
+        <f>'PCFMA SRC'!AJ13</f>
         <v>w-p</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="6" customFormat="1">
       <c r="A15" s="7" t="str">
-        <f>'PFEA SRC'!B14</f>
+        <f>'PCFMA SRC'!B14</f>
         <v>Susan</v>
       </c>
       <c r="B15" s="7" t="str">
-        <f>'PFEA SRC'!C14</f>
+        <f>'PCFMA SRC'!C14</f>
         <v>work-relevant</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="19">
-        <f>'PFEA SRC'!D14</f>
+        <f>'PCFMA SRC'!D14</f>
         <v>0.11799999999999999</v>
       </c>
       <c r="E15" s="15">
-        <f>'PFEA SRC'!E14</f>
+        <f>'PCFMA SRC'!E14</f>
         <v>4.48E-2</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="19">
-        <f>'PFEA SRC'!I14</f>
+        <f>'PCFMA SRC'!I14</f>
         <v>0.13900000000000001</v>
       </c>
       <c r="H15" s="15">
-        <f>'PFEA SRC'!J14</f>
+        <f>'PCFMA SRC'!J14</f>
         <v>3.6200000000000003E-2</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="19">
-        <f>'PFEA SRC'!N14</f>
+        <f>'PCFMA SRC'!N14</f>
         <v>0.17699999999999999</v>
       </c>
       <c r="K15" s="15">
-        <f>'PFEA SRC'!O14</f>
+        <f>'PCFMA SRC'!O14</f>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="19">
-        <f>'PFEA SRC'!S14</f>
+        <f>'PCFMA SRC'!S14</f>
         <v>0.60799999999999998</v>
       </c>
       <c r="N15" s="15">
-        <f>'PFEA SRC'!T14</f>
+        <f>'PCFMA SRC'!T14</f>
         <v>0</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="19">
-        <f>'PFEA SRC'!X14</f>
+        <f>'PCFMA SRC'!X14</f>
         <v>0.40899999999999997</v>
       </c>
       <c r="Q15" s="15">
-        <f>'PFEA SRC'!Y14</f>
+        <f>'PCFMA SRC'!Y14</f>
         <v>0</v>
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="56">
-        <f>'PFEA SRC'!AG14</f>
+        <f>'PCFMA SRC'!AG14</f>
         <v>0.33606734529799909</v>
       </c>
       <c r="T15" s="30">
-        <f>'PFEA SRC'!AI14</f>
+        <f>'PCFMA SRC'!AI14</f>
         <v>4.4886615091320081E-2</v>
       </c>
       <c r="U15" s="11" t="str">
-        <f>'PFEA SRC'!AJ14</f>
+        <f>'PCFMA SRC'!AJ14</f>
         <v>w-r</v>
       </c>
     </row>
@@ -7515,746 +7533,746 @@
     </row>
     <row r="17" spans="1:21" s="6" customFormat="1">
       <c r="A17" s="7" t="str">
-        <f>'PFEA SRC'!B16</f>
+        <f>'PCFMA SRC'!B16</f>
         <v>Adam</v>
       </c>
       <c r="B17" s="7" t="str">
-        <f>'PFEA SRC'!C16</f>
+        <f>'PCFMA SRC'!C16</f>
         <v>ALL</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="19">
-        <f>'PFEA SRC'!D16</f>
+        <f>'PCFMA SRC'!D16</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E17" s="15">
-        <f>'PFEA SRC'!E16</f>
+        <f>'PCFMA SRC'!E16</f>
         <v>0.63490000000000002</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="19">
-        <f>'PFEA SRC'!I16</f>
+        <f>'PCFMA SRC'!I16</f>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="H17" s="15">
-        <f>'PFEA SRC'!J16</f>
+        <f>'PCFMA SRC'!J16</f>
         <v>0</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="19">
-        <f>'PFEA SRC'!N16</f>
+        <f>'PCFMA SRC'!N16</f>
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="K17" s="15">
-        <f>'PFEA SRC'!O16</f>
+        <f>'PCFMA SRC'!O16</f>
         <v>0</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="19">
-        <f>'PFEA SRC'!S16</f>
+        <f>'PCFMA SRC'!S16</f>
         <v>0.25800000000000001</v>
       </c>
       <c r="N17" s="15">
-        <f>'PFEA SRC'!T16</f>
+        <f>'PCFMA SRC'!T16</f>
         <v>0</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="19">
-        <f>'PFEA SRC'!X16</f>
+        <f>'PCFMA SRC'!X16</f>
         <v>0.30299999999999999</v>
       </c>
       <c r="Q17" s="15">
-        <f>'PFEA SRC'!Y16</f>
+        <f>'PCFMA SRC'!Y16</f>
         <v>0</v>
       </c>
       <c r="R17" s="8"/>
       <c r="S17" s="56">
-        <f>'PFEA SRC'!AG16</f>
+        <f>'PCFMA SRC'!AG16</f>
         <v>0.18368455761329688</v>
       </c>
       <c r="T17" s="30"/>
       <c r="U17" s="11" t="str">
-        <f>'PFEA SRC'!AJ16</f>
+        <f>'PCFMA SRC'!AJ16</f>
         <v>ALL</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="6" customFormat="1">
       <c r="A18" s="7" t="str">
-        <f>'PFEA SRC'!B17</f>
+        <f>'PCFMA SRC'!B17</f>
         <v>Adam</v>
       </c>
       <c r="B18" s="7" t="str">
-        <f>'PFEA SRC'!C17</f>
+        <f>'PCFMA SRC'!C17</f>
         <v>cycling</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="19">
-        <f>'PFEA SRC'!D17</f>
+        <f>'PCFMA SRC'!D17</f>
         <v>0</v>
       </c>
       <c r="E18" s="15">
-        <f>'PFEA SRC'!E17</f>
+        <f>'PCFMA SRC'!E17</f>
         <v>1</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="19">
-        <f>'PFEA SRC'!I17</f>
+        <f>'PCFMA SRC'!I17</f>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="H18" s="15">
-        <f>'PFEA SRC'!J17</f>
+        <f>'PCFMA SRC'!J17</f>
         <v>0.21060000000000001</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="19">
-        <f>'PFEA SRC'!N17</f>
+        <f>'PCFMA SRC'!N17</f>
         <v>0.151</v>
       </c>
       <c r="K18" s="15">
-        <f>'PFEA SRC'!O17</f>
+        <f>'PCFMA SRC'!O17</f>
         <v>1.6E-2</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="19">
-        <f>'PFEA SRC'!S17</f>
+        <f>'PCFMA SRC'!S17</f>
         <v>0.20100000000000001</v>
       </c>
       <c r="N18" s="15">
-        <f>'PFEA SRC'!T17</f>
+        <f>'PCFMA SRC'!T17</f>
         <v>1E-3</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="19">
-        <f>'PFEA SRC'!X17</f>
+        <f>'PCFMA SRC'!X17</f>
         <v>0.45</v>
       </c>
       <c r="Q18" s="15">
-        <f>'PFEA SRC'!Y17</f>
+        <f>'PCFMA SRC'!Y17</f>
         <v>0</v>
       </c>
       <c r="R18" s="8"/>
       <c r="S18" s="56">
-        <f>'PFEA SRC'!AG17</f>
+        <f>'PCFMA SRC'!AG17</f>
         <v>0.27310199815500957</v>
       </c>
       <c r="T18" s="30">
-        <f>'PFEA SRC'!AI17</f>
+        <f>'PCFMA SRC'!AI17</f>
         <v>8.9417440541712689E-2</v>
       </c>
       <c r="U18" s="11" t="str">
-        <f>'PFEA SRC'!AJ17</f>
+        <f>'PCFMA SRC'!AJ17</f>
         <v>cy</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="6" customFormat="1">
       <c r="A19" s="7" t="str">
-        <f>'PFEA SRC'!B18</f>
+        <f>'PCFMA SRC'!B18</f>
         <v>Adam</v>
       </c>
       <c r="B19" s="7" t="str">
-        <f>'PFEA SRC'!C18</f>
+        <f>'PCFMA SRC'!C18</f>
         <v>cycling-logistics</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="19">
-        <f>'PFEA SRC'!D18</f>
+        <f>'PCFMA SRC'!D18</f>
         <v>0</v>
       </c>
       <c r="E19" s="15">
-        <f>'PFEA SRC'!E18</f>
+        <f>'PCFMA SRC'!E18</f>
         <v>1</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="19">
-        <f>'PFEA SRC'!I18</f>
+        <f>'PCFMA SRC'!I18</f>
         <v>0.21</v>
       </c>
       <c r="H19" s="15">
-        <f>'PFEA SRC'!J18</f>
+        <f>'PCFMA SRC'!J18</f>
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="19">
-        <f>'PFEA SRC'!N18</f>
+        <f>'PCFMA SRC'!N18</f>
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="K19" s="15">
-        <f>'PFEA SRC'!O18</f>
+        <f>'PCFMA SRC'!O18</f>
         <v>0.41839999999999999</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="19">
-        <f>'PFEA SRC'!S18</f>
+        <f>'PCFMA SRC'!S18</f>
         <v>0.45500000000000002</v>
       </c>
       <c r="N19" s="15">
-        <f>'PFEA SRC'!T18</f>
+        <f>'PCFMA SRC'!T18</f>
         <v>0</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="19">
-        <f>'PFEA SRC'!X18</f>
+        <f>'PCFMA SRC'!X18</f>
         <v>0.54200000000000004</v>
       </c>
       <c r="Q19" s="15">
-        <f>'PFEA SRC'!Y18</f>
+        <f>'PCFMA SRC'!Y18</f>
         <v>0</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="56">
-        <f>'PFEA SRC'!AG18</f>
+        <f>'PCFMA SRC'!AG18</f>
         <v>0.41119405819111132</v>
       </c>
       <c r="T19" s="30">
-        <f>'PFEA SRC'!AI18</f>
+        <f>'PCFMA SRC'!AI18</f>
         <v>0.22750950057781444</v>
       </c>
       <c r="U19" s="11" t="str">
-        <f>'PFEA SRC'!AJ18</f>
+        <f>'PCFMA SRC'!AJ18</f>
         <v>c-l</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="6" customFormat="1">
       <c r="A20" s="7" t="str">
-        <f>'PFEA SRC'!B19</f>
+        <f>'PCFMA SRC'!B19</f>
         <v>Adam</v>
       </c>
       <c r="B20" s="7" t="str">
-        <f>'PFEA SRC'!C19</f>
+        <f>'PCFMA SRC'!C19</f>
         <v>interested</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="19">
-        <f>'PFEA SRC'!D19</f>
+        <f>'PCFMA SRC'!D19</f>
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="E20" s="15">
-        <f>'PFEA SRC'!E19</f>
+        <f>'PCFMA SRC'!E19</f>
         <v>0.43020000000000003</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="19">
-        <f>'PFEA SRC'!I19</f>
+        <f>'PCFMA SRC'!I19</f>
         <v>0</v>
       </c>
       <c r="H20" s="15">
-        <f>'PFEA SRC'!J19</f>
+        <f>'PCFMA SRC'!J19</f>
         <v>1</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="19">
-        <f>'PFEA SRC'!N19</f>
+        <f>'PCFMA SRC'!N19</f>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="K20" s="15">
-        <f>'PFEA SRC'!O19</f>
+        <f>'PCFMA SRC'!O19</f>
         <v>0.55020000000000002</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="19">
-        <f>'PFEA SRC'!S19</f>
+        <f>'PCFMA SRC'!S19</f>
         <v>0.22800000000000001</v>
       </c>
       <c r="N20" s="15">
-        <f>'PFEA SRC'!T19</f>
+        <f>'PCFMA SRC'!T19</f>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="19">
-        <f>'PFEA SRC'!X19</f>
+        <f>'PCFMA SRC'!X19</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="Q20" s="15">
-        <f>'PFEA SRC'!Y19</f>
+        <f>'PCFMA SRC'!Y19</f>
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="56">
-        <f>'PFEA SRC'!AG19</f>
+        <f>'PCFMA SRC'!AG19</f>
         <v>0.18436947330652359</v>
       </c>
       <c r="T20" s="30">
-        <f>'PFEA SRC'!AI19</f>
+        <f>'PCFMA SRC'!AI19</f>
         <v>6.8491569322670642E-4</v>
       </c>
       <c r="U20" s="11" t="str">
-        <f>'PFEA SRC'!AJ19</f>
+        <f>'PCFMA SRC'!AJ19</f>
         <v>in</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="6" customFormat="1">
       <c r="A21" s="7" t="str">
-        <f>'PFEA SRC'!B20</f>
+        <f>'PCFMA SRC'!B20</f>
         <v>Adam</v>
       </c>
       <c r="B21" s="7" t="str">
-        <f>'PFEA SRC'!C20</f>
+        <f>'PCFMA SRC'!C20</f>
         <v>pers-urgency</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="19">
-        <f>'PFEA SRC'!D20</f>
+        <f>'PCFMA SRC'!D20</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E21" s="15">
-        <f>'PFEA SRC'!E20</f>
+        <f>'PCFMA SRC'!E20</f>
         <v>0.91359999999999997</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="19">
-        <f>'PFEA SRC'!I20</f>
+        <f>'PCFMA SRC'!I20</f>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H21" s="15">
-        <f>'PFEA SRC'!J20</f>
+        <f>'PCFMA SRC'!J20</f>
         <v>0.42349999999999999</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="19">
-        <f>'PFEA SRC'!N20</f>
+        <f>'PCFMA SRC'!N20</f>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="K21" s="15">
-        <f>'PFEA SRC'!O20</f>
+        <f>'PCFMA SRC'!O20</f>
         <v>0.14410000000000001</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="19">
-        <f>'PFEA SRC'!S20</f>
+        <f>'PCFMA SRC'!S20</f>
         <v>7.8E-2</v>
       </c>
       <c r="N21" s="15">
-        <f>'PFEA SRC'!T20</f>
+        <f>'PCFMA SRC'!T20</f>
         <v>0.2016</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="19">
-        <f>'PFEA SRC'!X20</f>
+        <f>'PCFMA SRC'!X20</f>
         <v>0.309</v>
       </c>
       <c r="Q21" s="15">
-        <f>'PFEA SRC'!Y20</f>
+        <f>'PCFMA SRC'!Y20</f>
         <v>0</v>
       </c>
       <c r="R21" s="8"/>
       <c r="S21" s="56">
-        <f>'PFEA SRC'!AG20</f>
+        <f>'PCFMA SRC'!AG20</f>
         <v>0.30899999999999989</v>
       </c>
       <c r="T21" s="30">
-        <f>'PFEA SRC'!AI20</f>
+        <f>'PCFMA SRC'!AI20</f>
         <v>0.125315442386703</v>
       </c>
       <c r="U21" s="11" t="str">
-        <f>'PFEA SRC'!AJ20</f>
+        <f>'PCFMA SRC'!AJ20</f>
         <v>p-u</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1">
       <c r="A22" s="7" t="str">
-        <f>'PFEA SRC'!B21</f>
+        <f>'PCFMA SRC'!B21</f>
         <v>Adam</v>
       </c>
       <c r="B22" s="7" t="str">
-        <f>'PFEA SRC'!C21</f>
+        <f>'PCFMA SRC'!C21</f>
         <v>tech</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="19">
-        <f>'PFEA SRC'!D21</f>
+        <f>'PCFMA SRC'!D21</f>
         <v>0</v>
       </c>
       <c r="E22" s="15">
-        <f>'PFEA SRC'!E21</f>
+        <f>'PCFMA SRC'!E21</f>
         <v>1</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="19">
-        <f>'PFEA SRC'!I21</f>
+        <f>'PCFMA SRC'!I21</f>
         <v>0.12</v>
       </c>
       <c r="H22" s="15">
-        <f>'PFEA SRC'!J21</f>
+        <f>'PCFMA SRC'!J21</f>
         <v>2.06E-2</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="19">
-        <f>'PFEA SRC'!N21</f>
+        <f>'PCFMA SRC'!N21</f>
         <v>0</v>
       </c>
       <c r="K22" s="15">
-        <f>'PFEA SRC'!O21</f>
+        <f>'PCFMA SRC'!O21</f>
         <v>1</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="19">
-        <f>'PFEA SRC'!S21</f>
+        <f>'PCFMA SRC'!S21</f>
         <v>0.52400000000000002</v>
       </c>
       <c r="N22" s="15">
-        <f>'PFEA SRC'!T21</f>
+        <f>'PCFMA SRC'!T21</f>
         <v>0</v>
       </c>
       <c r="O22" s="8"/>
       <c r="P22" s="19">
-        <f>'PFEA SRC'!X21</f>
+        <f>'PCFMA SRC'!X21</f>
         <v>0.46800000000000003</v>
       </c>
       <c r="Q22" s="15">
-        <f>'PFEA SRC'!Y21</f>
+        <f>'PCFMA SRC'!Y21</f>
         <v>0</v>
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="56">
-        <f>'PFEA SRC'!AG21</f>
+        <f>'PCFMA SRC'!AG21</f>
         <v>0.38277623019926288</v>
       </c>
       <c r="T22" s="30">
-        <f>'PFEA SRC'!AI21</f>
+        <f>'PCFMA SRC'!AI21</f>
         <v>0.199091672585966</v>
       </c>
       <c r="U22" s="11" t="str">
-        <f>'PFEA SRC'!AJ21</f>
+        <f>'PCFMA SRC'!AJ21</f>
         <v>tc</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="6" customFormat="1">
       <c r="A23" s="7" t="str">
-        <f>'PFEA SRC'!B22</f>
+        <f>'PCFMA SRC'!B22</f>
         <v>Adam</v>
       </c>
       <c r="B23" s="7" t="str">
-        <f>'PFEA SRC'!C22</f>
+        <f>'PCFMA SRC'!C22</f>
         <v>urgency</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="19">
-        <f>'PFEA SRC'!D22</f>
+        <f>'PCFMA SRC'!D22</f>
         <v>3.9E-2</v>
       </c>
       <c r="E23" s="15">
-        <f>'PFEA SRC'!E22</f>
+        <f>'PCFMA SRC'!E22</f>
         <v>0.44390000000000002</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="19">
-        <f>'PFEA SRC'!I22</f>
+        <f>'PCFMA SRC'!I22</f>
         <v>0</v>
       </c>
       <c r="H23" s="15">
-        <f>'PFEA SRC'!J22</f>
+        <f>'PCFMA SRC'!J22</f>
         <v>1</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="19">
-        <f>'PFEA SRC'!N22</f>
+        <f>'PCFMA SRC'!N22</f>
         <v>0.114</v>
       </c>
       <c r="K23" s="15">
-        <f>'PFEA SRC'!O22</f>
+        <f>'PCFMA SRC'!O22</f>
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="19">
-        <f>'PFEA SRC'!S22</f>
+        <f>'PCFMA SRC'!S22</f>
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="N23" s="15">
-        <f>'PFEA SRC'!T22</f>
+        <f>'PCFMA SRC'!T22</f>
         <v>0.54179999999999995</v>
       </c>
       <c r="O23" s="8"/>
       <c r="P23" s="19">
-        <f>'PFEA SRC'!X22</f>
+        <f>'PCFMA SRC'!X22</f>
         <v>0.185</v>
       </c>
       <c r="Q23" s="15">
-        <f>'PFEA SRC'!Y22</f>
+        <f>'PCFMA SRC'!Y22</f>
         <v>0</v>
       </c>
       <c r="R23" s="8"/>
       <c r="S23" s="56">
-        <f>'PFEA SRC'!AG22</f>
+        <f>'PCFMA SRC'!AG22</f>
         <v>0.14969296903739643</v>
       </c>
       <c r="T23" s="30">
-        <f>'PFEA SRC'!AI22</f>
+        <f>'PCFMA SRC'!AI22</f>
         <v>-3.3991588575900455E-2</v>
       </c>
       <c r="U23" s="11" t="str">
-        <f>'PFEA SRC'!AJ22</f>
+        <f>'PCFMA SRC'!AJ22</f>
         <v>ur</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="6" customFormat="1">
       <c r="A24" s="7" t="str">
-        <f>'PFEA SRC'!B23</f>
+        <f>'PCFMA SRC'!B23</f>
         <v>Adam</v>
       </c>
       <c r="B24" s="7" t="str">
-        <f>'PFEA SRC'!C23</f>
+        <f>'PCFMA SRC'!C23</f>
         <v>work-logistics</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="19">
-        <f>'PFEA SRC'!D23</f>
+        <f>'PCFMA SRC'!D23</f>
         <v>0</v>
       </c>
       <c r="E24" s="15">
-        <f>'PFEA SRC'!E23</f>
+        <f>'PCFMA SRC'!E23</f>
         <v>1</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="19">
-        <f>'PFEA SRC'!I23</f>
+        <f>'PCFMA SRC'!I23</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H24" s="15">
-        <f>'PFEA SRC'!J23</f>
+        <f>'PCFMA SRC'!J23</f>
         <v>0.88859999999999995</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="19">
-        <f>'PFEA SRC'!N23</f>
+        <f>'PCFMA SRC'!N23</f>
         <v>0</v>
       </c>
       <c r="K24" s="15">
-        <f>'PFEA SRC'!O23</f>
+        <f>'PCFMA SRC'!O23</f>
         <v>1</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="19">
-        <f>'PFEA SRC'!S23</f>
+        <f>'PCFMA SRC'!S23</f>
         <v>0.26200000000000001</v>
       </c>
       <c r="N24" s="15">
-        <f>'PFEA SRC'!T23</f>
+        <f>'PCFMA SRC'!T23</f>
         <v>0</v>
       </c>
       <c r="O24" s="8"/>
       <c r="P24" s="19">
-        <f>'PFEA SRC'!X23</f>
+        <f>'PCFMA SRC'!X23</f>
         <v>0.436</v>
       </c>
       <c r="Q24" s="15">
-        <f>'PFEA SRC'!Y23</f>
+        <f>'PCFMA SRC'!Y23</f>
         <v>0</v>
       </c>
       <c r="R24" s="8"/>
       <c r="S24" s="56">
-        <f>'PFEA SRC'!AG23</f>
+        <f>'PCFMA SRC'!AG23</f>
         <v>0.35203780211611374</v>
       </c>
       <c r="T24" s="30">
-        <f>'PFEA SRC'!AI23</f>
+        <f>'PCFMA SRC'!AI23</f>
         <v>0.16835324450281686</v>
       </c>
       <c r="U24" s="11" t="str">
-        <f>'PFEA SRC'!AJ23</f>
+        <f>'PCFMA SRC'!AJ23</f>
         <v>w-l</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="6" customFormat="1">
       <c r="A25" s="7" t="str">
-        <f>'PFEA SRC'!B24</f>
+        <f>'PCFMA SRC'!B24</f>
         <v>Adam</v>
       </c>
       <c r="B25" s="7" t="str">
-        <f>'PFEA SRC'!C24</f>
+        <f>'PCFMA SRC'!C24</f>
         <v>work-pers</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="19">
-        <f>'PFEA SRC'!D24</f>
+        <f>'PCFMA SRC'!D24</f>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="E25" s="15">
-        <f>'PFEA SRC'!E24</f>
+        <f>'PCFMA SRC'!E24</f>
         <v>0.19420000000000001</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="19">
-        <f>'PFEA SRC'!I24</f>
+        <f>'PCFMA SRC'!I24</f>
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="H25" s="15">
-        <f>'PFEA SRC'!J24</f>
+        <f>'PCFMA SRC'!J24</f>
         <v>0.21629999999999999</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="19">
-        <f>'PFEA SRC'!N24</f>
+        <f>'PCFMA SRC'!N24</f>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="K25" s="15">
-        <f>'PFEA SRC'!O24</f>
+        <f>'PCFMA SRC'!O24</f>
         <v>0.62409999999999999</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="19">
-        <f>'PFEA SRC'!S24</f>
+        <f>'PCFMA SRC'!S24</f>
         <v>0.30399999999999999</v>
       </c>
       <c r="N25" s="15">
-        <f>'PFEA SRC'!T24</f>
+        <f>'PCFMA SRC'!T24</f>
         <v>0</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="19">
-        <f>'PFEA SRC'!X24</f>
+        <f>'PCFMA SRC'!X24</f>
         <v>0.22600000000000001</v>
       </c>
       <c r="Q25" s="15">
-        <f>'PFEA SRC'!Y24</f>
+        <f>'PCFMA SRC'!Y24</f>
         <v>0</v>
       </c>
       <c r="R25" s="8"/>
       <c r="S25" s="56">
-        <f>'PFEA SRC'!AG24</f>
+        <f>'PCFMA SRC'!AG24</f>
         <v>0.26543427227567945</v>
       </c>
       <c r="T25" s="30">
-        <f>'PFEA SRC'!AI24</f>
+        <f>'PCFMA SRC'!AI24</f>
         <v>8.1749714662382567E-2</v>
       </c>
       <c r="U25" s="11" t="str">
-        <f>'PFEA SRC'!AJ24</f>
+        <f>'PCFMA SRC'!AJ24</f>
         <v>w-p</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="6" customFormat="1">
       <c r="A26" s="7" t="str">
-        <f>'PFEA SRC'!B25</f>
+        <f>'PCFMA SRC'!B25</f>
         <v>Adam</v>
       </c>
       <c r="B26" s="7" t="str">
-        <f>'PFEA SRC'!C25</f>
+        <f>'PCFMA SRC'!C25</f>
         <v>work-relevant</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="19">
-        <f>'PFEA SRC'!D25</f>
+        <f>'PCFMA SRC'!D25</f>
         <v>0.122</v>
       </c>
       <c r="E26" s="15">
-        <f>'PFEA SRC'!E25</f>
+        <f>'PCFMA SRC'!E25</f>
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="19">
-        <f>'PFEA SRC'!I25</f>
+        <f>'PCFMA SRC'!I25</f>
         <v>0.214</v>
       </c>
       <c r="H26" s="15">
-        <f>'PFEA SRC'!J25</f>
+        <f>'PCFMA SRC'!J25</f>
         <v>0</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="19">
-        <f>'PFEA SRC'!N25</f>
+        <f>'PCFMA SRC'!N25</f>
         <v>0.114</v>
       </c>
       <c r="K26" s="15">
-        <f>'PFEA SRC'!O25</f>
+        <f>'PCFMA SRC'!O25</f>
         <v>5.3400000000000003E-2</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="19">
-        <f>'PFEA SRC'!S25</f>
+        <f>'PCFMA SRC'!S25</f>
         <v>0.14299999999999999</v>
       </c>
       <c r="N26" s="15">
-        <f>'PFEA SRC'!T25</f>
+        <f>'PCFMA SRC'!T25</f>
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="O26" s="8"/>
       <c r="P26" s="19">
-        <f>'PFEA SRC'!X25</f>
+        <f>'PCFMA SRC'!X25</f>
         <v>0.28299999999999997</v>
       </c>
       <c r="Q26" s="15">
-        <f>'PFEA SRC'!Y25</f>
+        <f>'PCFMA SRC'!Y25</f>
         <v>0</v>
       </c>
       <c r="R26" s="8"/>
       <c r="S26" s="56">
-        <f>'PFEA SRC'!AG25</f>
+        <f>'PCFMA SRC'!AG25</f>
         <v>0.17602639783021515</v>
       </c>
       <c r="T26" s="30">
-        <f>'PFEA SRC'!AI25</f>
+        <f>'PCFMA SRC'!AI25</f>
         <v>-7.6581597830817361E-3</v>
       </c>
       <c r="U26" s="11" t="str">
-        <f>'PFEA SRC'!AJ25</f>
+        <f>'PCFMA SRC'!AJ25</f>
         <v>w-r</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="6" customFormat="1">
       <c r="A27" s="7" t="str">
-        <f>'PFEA SRC'!B26</f>
+        <f>'PCFMA SRC'!B26</f>
         <v>Adam</v>
       </c>
       <c r="B27" s="7" t="str">
-        <f>'PFEA SRC'!C26</f>
+        <f>'PCFMA SRC'!C26</f>
         <v>work-urgency</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="19">
-        <f>'PFEA SRC'!D26</f>
+        <f>'PCFMA SRC'!D26</f>
         <v>1.2E-2</v>
       </c>
       <c r="E27" s="15">
-        <f>'PFEA SRC'!E26</f>
+        <f>'PCFMA SRC'!E26</f>
         <v>0.8145</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="19">
-        <f>'PFEA SRC'!I26</f>
+        <f>'PCFMA SRC'!I26</f>
         <v>0.05</v>
       </c>
       <c r="H27" s="15">
-        <f>'PFEA SRC'!J26</f>
+        <f>'PCFMA SRC'!J26</f>
         <v>0.32500000000000001</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="19">
-        <f>'PFEA SRC'!N26</f>
+        <f>'PCFMA SRC'!N26</f>
         <v>5.5E-2</v>
       </c>
       <c r="K27" s="15">
-        <f>'PFEA SRC'!O26</f>
+        <f>'PCFMA SRC'!O26</f>
         <v>0.31080000000000002</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="19">
-        <f>'PFEA SRC'!S26</f>
+        <f>'PCFMA SRC'!S26</f>
         <v>0.23699999999999999</v>
       </c>
       <c r="N27" s="15">
-        <f>'PFEA SRC'!T26</f>
+        <f>'PCFMA SRC'!T26</f>
         <v>1E-4</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="19">
-        <f>'PFEA SRC'!X26</f>
+        <f>'PCFMA SRC'!X26</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="Q27" s="15">
-        <f>'PFEA SRC'!Y26</f>
+        <f>'PCFMA SRC'!Y26</f>
         <v>0</v>
       </c>
       <c r="R27" s="8"/>
       <c r="S27" s="56">
-        <f>'PFEA SRC'!AG26</f>
+        <f>'PCFMA SRC'!AG26</f>
         <v>0.26369901083651348</v>
       </c>
       <c r="T27" s="30">
-        <f>'PFEA SRC'!AI26</f>
+        <f>'PCFMA SRC'!AI26</f>
         <v>8.0014453223216597E-2</v>
       </c>
       <c r="U27" s="11" t="str">
-        <f>'PFEA SRC'!AJ26</f>
+        <f>'PCFMA SRC'!AJ26</f>
         <v>w-u</v>
       </c>
     </row>
@@ -8283,474 +8301,474 @@
     </row>
     <row r="29" spans="1:21" s="6" customFormat="1">
       <c r="A29" s="7">
-        <f>'PFEA SRC'!B28</f>
+        <f>'PCFMA SRC'!B28</f>
         <v>0</v>
       </c>
       <c r="B29" s="7" t="str">
-        <f>'PFEA SRC'!C28</f>
+        <f>'PCFMA SRC'!C28</f>
         <v>ALL</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="19">
-        <f>'PFEA SRC'!D28</f>
+        <f>'PCFMA SRC'!D28</f>
         <v>0</v>
       </c>
       <c r="E29" s="15">
-        <f>'PFEA SRC'!E28</f>
+        <f>'PCFMA SRC'!E28</f>
         <v>0</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="19">
-        <f>'PFEA SRC'!I28</f>
+        <f>'PCFMA SRC'!I28</f>
         <v>0</v>
       </c>
       <c r="H29" s="15">
-        <f>'PFEA SRC'!J28</f>
+        <f>'PCFMA SRC'!J28</f>
         <v>0</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="19">
-        <f>'PFEA SRC'!N28</f>
+        <f>'PCFMA SRC'!N28</f>
         <v>0</v>
       </c>
       <c r="K29" s="15">
-        <f>'PFEA SRC'!O28</f>
+        <f>'PCFMA SRC'!O28</f>
         <v>0</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="19">
-        <f>'PFEA SRC'!S28</f>
+        <f>'PCFMA SRC'!S28</f>
         <v>0</v>
       </c>
       <c r="N29" s="15">
-        <f>'PFEA SRC'!T28</f>
+        <f>'PCFMA SRC'!T28</f>
         <v>0</v>
       </c>
       <c r="O29" s="8"/>
       <c r="P29" s="19">
-        <f>'PFEA SRC'!X28</f>
+        <f>'PCFMA SRC'!X28</f>
         <v>0</v>
       </c>
       <c r="Q29" s="15">
-        <f>'PFEA SRC'!Y28</f>
+        <f>'PCFMA SRC'!Y28</f>
         <v>0</v>
       </c>
       <c r="R29" s="8"/>
       <c r="S29" s="56">
-        <f>'PFEA SRC'!AG28</f>
+        <f>'PCFMA SRC'!AG28</f>
         <v>0</v>
       </c>
       <c r="T29" s="30"/>
       <c r="U29" s="11" t="str">
-        <f>'PFEA SRC'!AJ28</f>
+        <f>'PCFMA SRC'!AJ28</f>
         <v>ALL</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="6" customFormat="1">
       <c r="A30" s="7">
-        <f>'PFEA SRC'!B29</f>
+        <f>'PCFMA SRC'!B29</f>
         <v>0</v>
       </c>
       <c r="B30" s="7" t="str">
-        <f>'PFEA SRC'!C29</f>
+        <f>'PCFMA SRC'!C29</f>
         <v>friend-group</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="19">
-        <f>'PFEA SRC'!D29</f>
+        <f>'PCFMA SRC'!D29</f>
         <v>0</v>
       </c>
       <c r="E30" s="15">
-        <f>'PFEA SRC'!E29</f>
+        <f>'PCFMA SRC'!E29</f>
         <v>0</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="19">
-        <f>'PFEA SRC'!I29</f>
+        <f>'PCFMA SRC'!I29</f>
         <v>0</v>
       </c>
       <c r="H30" s="15">
-        <f>'PFEA SRC'!J29</f>
+        <f>'PCFMA SRC'!J29</f>
         <v>0</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="19">
-        <f>'PFEA SRC'!N29</f>
+        <f>'PCFMA SRC'!N29</f>
         <v>0</v>
       </c>
       <c r="K30" s="15">
-        <f>'PFEA SRC'!O29</f>
+        <f>'PCFMA SRC'!O29</f>
         <v>0</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="19">
-        <f>'PFEA SRC'!S29</f>
+        <f>'PCFMA SRC'!S29</f>
         <v>0</v>
       </c>
       <c r="N30" s="15">
-        <f>'PFEA SRC'!T29</f>
+        <f>'PCFMA SRC'!T29</f>
         <v>0</v>
       </c>
       <c r="O30" s="8"/>
       <c r="P30" s="19">
-        <f>'PFEA SRC'!X29</f>
+        <f>'PCFMA SRC'!X29</f>
         <v>0</v>
       </c>
       <c r="Q30" s="15">
-        <f>'PFEA SRC'!Y29</f>
+        <f>'PCFMA SRC'!Y29</f>
         <v>0</v>
       </c>
       <c r="R30" s="8"/>
       <c r="S30" s="56">
-        <f>'PFEA SRC'!AG29</f>
+        <f>'PCFMA SRC'!AG29</f>
         <v>0</v>
       </c>
       <c r="T30" s="30">
-        <f>'PFEA SRC'!AI29</f>
+        <f>'PCFMA SRC'!AI29</f>
         <v>0</v>
       </c>
       <c r="U30" s="11" t="str">
-        <f>'PFEA SRC'!AJ29</f>
+        <f>'PCFMA SRC'!AJ29</f>
         <v>f-g</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="6" customFormat="1">
       <c r="A31" s="7">
-        <f>'PFEA SRC'!B30</f>
+        <f>'PCFMA SRC'!B30</f>
         <v>0</v>
       </c>
       <c r="B31" s="7" t="str">
-        <f>'PFEA SRC'!C30</f>
+        <f>'PCFMA SRC'!C30</f>
         <v>personal-interested</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="19">
-        <f>'PFEA SRC'!D30</f>
+        <f>'PCFMA SRC'!D30</f>
         <v>0</v>
       </c>
       <c r="E31" s="15">
-        <f>'PFEA SRC'!E30</f>
+        <f>'PCFMA SRC'!E30</f>
         <v>0</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="19">
-        <f>'PFEA SRC'!I30</f>
+        <f>'PCFMA SRC'!I30</f>
         <v>0</v>
       </c>
       <c r="H31" s="15">
-        <f>'PFEA SRC'!J30</f>
+        <f>'PCFMA SRC'!J30</f>
         <v>0</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="19">
-        <f>'PFEA SRC'!N30</f>
+        <f>'PCFMA SRC'!N30</f>
         <v>0</v>
       </c>
       <c r="K31" s="15">
-        <f>'PFEA SRC'!O30</f>
+        <f>'PCFMA SRC'!O30</f>
         <v>0</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="19">
-        <f>'PFEA SRC'!S30</f>
+        <f>'PCFMA SRC'!S30</f>
         <v>0</v>
       </c>
       <c r="N31" s="15">
-        <f>'PFEA SRC'!T30</f>
+        <f>'PCFMA SRC'!T30</f>
         <v>0</v>
       </c>
       <c r="O31" s="8"/>
       <c r="P31" s="19">
-        <f>'PFEA SRC'!X30</f>
+        <f>'PCFMA SRC'!X30</f>
         <v>0</v>
       </c>
       <c r="Q31" s="15">
-        <f>'PFEA SRC'!Y30</f>
+        <f>'PCFMA SRC'!Y30</f>
         <v>0</v>
       </c>
       <c r="R31" s="8"/>
       <c r="S31" s="56">
-        <f>'PFEA SRC'!AG30</f>
+        <f>'PCFMA SRC'!AG30</f>
         <v>0</v>
       </c>
       <c r="T31" s="30">
-        <f>'PFEA SRC'!AI30</f>
+        <f>'PCFMA SRC'!AI30</f>
         <v>0</v>
       </c>
       <c r="U31" s="11" t="str">
-        <f>'PFEA SRC'!AJ30</f>
+        <f>'PCFMA SRC'!AJ30</f>
         <v>p-i</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="6" customFormat="1">
       <c r="A32" s="7">
-        <f>'PFEA SRC'!B31</f>
+        <f>'PCFMA SRC'!B31</f>
         <v>0</v>
       </c>
       <c r="B32" s="7" t="str">
-        <f>'PFEA SRC'!C31</f>
+        <f>'PCFMA SRC'!C31</f>
         <v>urgency</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="19">
-        <f>'PFEA SRC'!D31</f>
+        <f>'PCFMA SRC'!D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="15">
-        <f>'PFEA SRC'!E31</f>
+        <f>'PCFMA SRC'!E31</f>
         <v>0</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="19">
-        <f>'PFEA SRC'!I31</f>
+        <f>'PCFMA SRC'!I31</f>
         <v>0</v>
       </c>
       <c r="H32" s="15">
-        <f>'PFEA SRC'!J31</f>
+        <f>'PCFMA SRC'!J31</f>
         <v>0</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="19">
-        <f>'PFEA SRC'!N31</f>
+        <f>'PCFMA SRC'!N31</f>
         <v>0</v>
       </c>
       <c r="K32" s="15">
-        <f>'PFEA SRC'!O31</f>
+        <f>'PCFMA SRC'!O31</f>
         <v>0</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="19">
-        <f>'PFEA SRC'!S31</f>
+        <f>'PCFMA SRC'!S31</f>
         <v>0</v>
       </c>
       <c r="N32" s="15">
-        <f>'PFEA SRC'!T31</f>
+        <f>'PCFMA SRC'!T31</f>
         <v>0</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="19">
-        <f>'PFEA SRC'!X31</f>
+        <f>'PCFMA SRC'!X31</f>
         <v>0</v>
       </c>
       <c r="Q32" s="15">
-        <f>'PFEA SRC'!Y31</f>
+        <f>'PCFMA SRC'!Y31</f>
         <v>0</v>
       </c>
       <c r="R32" s="8"/>
       <c r="S32" s="56">
-        <f>'PFEA SRC'!AG31</f>
+        <f>'PCFMA SRC'!AG31</f>
         <v>0</v>
       </c>
       <c r="T32" s="30">
-        <f>'PFEA SRC'!AI31</f>
+        <f>'PCFMA SRC'!AI31</f>
         <v>0</v>
       </c>
       <c r="U32" s="11" t="str">
-        <f>'PFEA SRC'!AJ31</f>
+        <f>'PCFMA SRC'!AJ31</f>
         <v>ur</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="6" customFormat="1">
       <c r="A33" s="7">
-        <f>'PFEA SRC'!B32</f>
+        <f>'PCFMA SRC'!B32</f>
         <v>0</v>
       </c>
       <c r="B33" s="7" t="str">
-        <f>'PFEA SRC'!C32</f>
+        <f>'PCFMA SRC'!C32</f>
         <v>work-logistics</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="19">
-        <f>'PFEA SRC'!D32</f>
+        <f>'PCFMA SRC'!D32</f>
         <v>0</v>
       </c>
       <c r="E33" s="15">
-        <f>'PFEA SRC'!E32</f>
+        <f>'PCFMA SRC'!E32</f>
         <v>0</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="19">
-        <f>'PFEA SRC'!I32</f>
+        <f>'PCFMA SRC'!I32</f>
         <v>0</v>
       </c>
       <c r="H33" s="15">
-        <f>'PFEA SRC'!J32</f>
+        <f>'PCFMA SRC'!J32</f>
         <v>0</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="19">
-        <f>'PFEA SRC'!N32</f>
+        <f>'PCFMA SRC'!N32</f>
         <v>0</v>
       </c>
       <c r="K33" s="15">
-        <f>'PFEA SRC'!O32</f>
+        <f>'PCFMA SRC'!O32</f>
         <v>0</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="19">
-        <f>'PFEA SRC'!S32</f>
+        <f>'PCFMA SRC'!S32</f>
         <v>0</v>
       </c>
       <c r="N33" s="15">
-        <f>'PFEA SRC'!T32</f>
+        <f>'PCFMA SRC'!T32</f>
         <v>0</v>
       </c>
       <c r="O33" s="8"/>
       <c r="P33" s="19">
-        <f>'PFEA SRC'!X32</f>
+        <f>'PCFMA SRC'!X32</f>
         <v>0</v>
       </c>
       <c r="Q33" s="15">
-        <f>'PFEA SRC'!Y32</f>
+        <f>'PCFMA SRC'!Y32</f>
         <v>0</v>
       </c>
       <c r="R33" s="8"/>
       <c r="S33" s="56">
-        <f>'PFEA SRC'!AG32</f>
+        <f>'PCFMA SRC'!AG32</f>
         <v>0</v>
       </c>
       <c r="T33" s="30">
-        <f>'PFEA SRC'!AI32</f>
+        <f>'PCFMA SRC'!AI32</f>
         <v>0</v>
       </c>
       <c r="U33" s="11" t="str">
-        <f>'PFEA SRC'!AJ32</f>
+        <f>'PCFMA SRC'!AJ32</f>
         <v>w-l</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="6" customFormat="1">
       <c r="A34" s="7">
-        <f>'PFEA SRC'!B33</f>
+        <f>'PCFMA SRC'!B33</f>
         <v>0</v>
       </c>
       <c r="B34" s="7" t="str">
-        <f>'PFEA SRC'!C33</f>
+        <f>'PCFMA SRC'!C33</f>
         <v>work-pers</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="19">
-        <f>'PFEA SRC'!D33</f>
+        <f>'PCFMA SRC'!D33</f>
         <v>0</v>
       </c>
       <c r="E34" s="15">
-        <f>'PFEA SRC'!E33</f>
+        <f>'PCFMA SRC'!E33</f>
         <v>0</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="19">
-        <f>'PFEA SRC'!I33</f>
+        <f>'PCFMA SRC'!I33</f>
         <v>0</v>
       </c>
       <c r="H34" s="15">
-        <f>'PFEA SRC'!J33</f>
+        <f>'PCFMA SRC'!J33</f>
         <v>0</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="19">
-        <f>'PFEA SRC'!N33</f>
+        <f>'PCFMA SRC'!N33</f>
         <v>0</v>
       </c>
       <c r="K34" s="15">
-        <f>'PFEA SRC'!O33</f>
+        <f>'PCFMA SRC'!O33</f>
         <v>0</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="19">
-        <f>'PFEA SRC'!S33</f>
+        <f>'PCFMA SRC'!S33</f>
         <v>0</v>
       </c>
       <c r="N34" s="15">
-        <f>'PFEA SRC'!T33</f>
+        <f>'PCFMA SRC'!T33</f>
         <v>0</v>
       </c>
       <c r="O34" s="8"/>
       <c r="P34" s="19">
-        <f>'PFEA SRC'!X33</f>
+        <f>'PCFMA SRC'!X33</f>
         <v>0</v>
       </c>
       <c r="Q34" s="15">
-        <f>'PFEA SRC'!Y33</f>
+        <f>'PCFMA SRC'!Y33</f>
         <v>0</v>
       </c>
       <c r="R34" s="8"/>
       <c r="S34" s="56">
-        <f>'PFEA SRC'!AG33</f>
+        <f>'PCFMA SRC'!AG33</f>
         <v>0</v>
       </c>
       <c r="T34" s="30">
-        <f>'PFEA SRC'!AI33</f>
+        <f>'PCFMA SRC'!AI33</f>
         <v>0</v>
       </c>
       <c r="U34" s="11" t="str">
-        <f>'PFEA SRC'!AJ33</f>
+        <f>'PCFMA SRC'!AJ33</f>
         <v>w-p</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="6" customFormat="1">
       <c r="A35" s="7">
-        <f>'PFEA SRC'!B34</f>
+        <f>'PCFMA SRC'!B34</f>
         <v>0</v>
       </c>
       <c r="B35" s="7" t="str">
-        <f>'PFEA SRC'!C34</f>
+        <f>'PCFMA SRC'!C34</f>
         <v>work-relevant</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="19">
-        <f>'PFEA SRC'!D34</f>
+        <f>'PCFMA SRC'!D34</f>
         <v>0</v>
       </c>
       <c r="E35" s="15">
-        <f>'PFEA SRC'!E34</f>
+        <f>'PCFMA SRC'!E34</f>
         <v>0</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="19">
-        <f>'PFEA SRC'!I34</f>
+        <f>'PCFMA SRC'!I34</f>
         <v>0</v>
       </c>
       <c r="H35" s="15">
-        <f>'PFEA SRC'!J34</f>
+        <f>'PCFMA SRC'!J34</f>
         <v>0</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="19">
-        <f>'PFEA SRC'!N34</f>
+        <f>'PCFMA SRC'!N34</f>
         <v>0</v>
       </c>
       <c r="K35" s="15">
-        <f>'PFEA SRC'!O34</f>
+        <f>'PCFMA SRC'!O34</f>
         <v>0</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="19">
-        <f>'PFEA SRC'!S34</f>
+        <f>'PCFMA SRC'!S34</f>
         <v>0</v>
       </c>
       <c r="N35" s="15">
-        <f>'PFEA SRC'!T34</f>
+        <f>'PCFMA SRC'!T34</f>
         <v>0</v>
       </c>
       <c r="O35" s="8"/>
       <c r="P35" s="19">
-        <f>'PFEA SRC'!X34</f>
+        <f>'PCFMA SRC'!X34</f>
         <v>0</v>
       </c>
       <c r="Q35" s="15">
-        <f>'PFEA SRC'!Y34</f>
+        <f>'PCFMA SRC'!Y34</f>
         <v>0</v>
       </c>
       <c r="R35" s="8"/>
       <c r="S35" s="56">
-        <f>'PFEA SRC'!AG34</f>
+        <f>'PCFMA SRC'!AG34</f>
         <v>0</v>
       </c>
       <c r="T35" s="30">
-        <f>'PFEA SRC'!AI34</f>
+        <f>'PCFMA SRC'!AI34</f>
         <v>0</v>
       </c>
       <c r="U35" s="11" t="str">
-        <f>'PFEA SRC'!AJ34</f>
+        <f>'PCFMA SRC'!AJ34</f>
         <v>w-r</v>
       </c>
     </row>
@@ -8779,542 +8797,542 @@
     </row>
     <row r="37" spans="1:21" s="6" customFormat="1">
       <c r="A37" s="7" t="str">
-        <f>'PFEA SRC'!B36</f>
+        <f>'PCFMA SRC'!B36</f>
         <v>Kenton</v>
       </c>
       <c r="B37" s="7" t="str">
-        <f>'PFEA SRC'!C36</f>
+        <f>'PCFMA SRC'!C36</f>
         <v>ALL</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="19">
-        <f>'PFEA SRC'!D36</f>
+        <f>'PCFMA SRC'!D36</f>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="E37" s="15">
-        <f>'PFEA SRC'!E36</f>
+        <f>'PCFMA SRC'!E36</f>
         <v>7.9399999999999998E-2</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="19">
-        <f>'PFEA SRC'!I36</f>
+        <f>'PCFMA SRC'!I36</f>
         <v>0.111</v>
       </c>
       <c r="H37" s="15">
-        <f>'PFEA SRC'!J36</f>
+        <f>'PCFMA SRC'!J36</f>
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="19">
-        <f>'PFEA SRC'!N36</f>
+        <f>'PCFMA SRC'!N36</f>
         <v>0.129</v>
       </c>
       <c r="K37" s="15">
-        <f>'PFEA SRC'!O36</f>
+        <f>'PCFMA SRC'!O36</f>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="19">
-        <f>'PFEA SRC'!S36</f>
+        <f>'PCFMA SRC'!S36</f>
         <v>0.46500000000000002</v>
       </c>
       <c r="N37" s="15">
-        <f>'PFEA SRC'!T36</f>
+        <f>'PCFMA SRC'!T36</f>
         <v>0</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="19">
-        <f>'PFEA SRC'!X36</f>
+        <f>'PCFMA SRC'!X36</f>
         <v>0.39900000000000002</v>
       </c>
       <c r="Q37" s="15">
-        <f>'PFEA SRC'!Y36</f>
+        <f>'PCFMA SRC'!Y36</f>
         <v>0</v>
       </c>
       <c r="R37" s="8"/>
       <c r="S37" s="56">
-        <f>'PFEA SRC'!AG36</f>
+        <f>'PCFMA SRC'!AG36</f>
         <v>0.28381665943425832</v>
       </c>
       <c r="T37" s="30"/>
       <c r="U37" s="11" t="str">
-        <f>'PFEA SRC'!AJ36</f>
+        <f>'PCFMA SRC'!AJ36</f>
         <v>ALL</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="6" customFormat="1">
       <c r="A38" s="7" t="str">
-        <f>'PFEA SRC'!B37</f>
+        <f>'PCFMA SRC'!B37</f>
         <v>Kenton</v>
       </c>
       <c r="B38" s="7" t="str">
-        <f>'PFEA SRC'!C37</f>
+        <f>'PCFMA SRC'!C37</f>
         <v>football</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="19">
-        <f>'PFEA SRC'!D37</f>
+        <f>'PCFMA SRC'!D37</f>
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="E38" s="15">
-        <f>'PFEA SRC'!E37</f>
+        <f>'PCFMA SRC'!E37</f>
         <v>0.62380000000000002</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="19">
-        <f>'PFEA SRC'!I37</f>
+        <f>'PCFMA SRC'!I37</f>
         <v>0</v>
       </c>
       <c r="H38" s="15">
-        <f>'PFEA SRC'!J37</f>
+        <f>'PCFMA SRC'!J37</f>
         <v>1</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="19">
-        <f>'PFEA SRC'!N37</f>
+        <f>'PCFMA SRC'!N37</f>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="K38" s="15">
-        <f>'PFEA SRC'!O37</f>
+        <f>'PCFMA SRC'!O37</f>
         <v>0.5988</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="19">
-        <f>'PFEA SRC'!S37</f>
+        <f>'PCFMA SRC'!S37</f>
         <v>0.76400000000000001</v>
       </c>
       <c r="N38" s="15">
-        <f>'PFEA SRC'!T37</f>
+        <f>'PCFMA SRC'!T37</f>
         <v>0</v>
       </c>
       <c r="O38" s="8"/>
       <c r="P38" s="19">
-        <f>'PFEA SRC'!X37</f>
+        <f>'PCFMA SRC'!X37</f>
         <v>0.70099999999999996</v>
       </c>
       <c r="Q38" s="15">
-        <f>'PFEA SRC'!Y37</f>
+        <f>'PCFMA SRC'!Y37</f>
         <v>0</v>
       </c>
       <c r="R38" s="8"/>
       <c r="S38" s="56">
-        <f>'PFEA SRC'!AG37</f>
+        <f>'PCFMA SRC'!AG37</f>
         <v>0.73407560648515713</v>
       </c>
       <c r="T38" s="30">
-        <f>'PFEA SRC'!AI37</f>
+        <f>'PCFMA SRC'!AI37</f>
         <v>0.45025894705089881</v>
       </c>
       <c r="U38" s="11" t="str">
-        <f>'PFEA SRC'!AJ37</f>
+        <f>'PCFMA SRC'!AJ37</f>
         <v>fo</v>
       </c>
     </row>
     <row r="39" spans="1:21" s="6" customFormat="1">
       <c r="A39" s="7" t="str">
-        <f>'PFEA SRC'!B38</f>
+        <f>'PCFMA SRC'!B38</f>
         <v>Kenton</v>
       </c>
       <c r="B39" s="7" t="str">
-        <f>'PFEA SRC'!C38</f>
+        <f>'PCFMA SRC'!C38</f>
         <v>golf</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="19">
-        <f>'PFEA SRC'!D38</f>
+        <f>'PCFMA SRC'!D38</f>
         <v>0</v>
       </c>
       <c r="E39" s="15">
-        <f>'PFEA SRC'!E38</f>
+        <f>'PCFMA SRC'!E38</f>
         <v>1</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="19">
-        <f>'PFEA SRC'!I38</f>
+        <f>'PCFMA SRC'!I38</f>
         <v>1.6E-2</v>
       </c>
       <c r="H39" s="15">
-        <f>'PFEA SRC'!J38</f>
+        <f>'PCFMA SRC'!J38</f>
         <v>0.86380000000000001</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="19">
-        <f>'PFEA SRC'!N38</f>
+        <f>'PCFMA SRC'!N38</f>
         <v>0.22500000000000001</v>
       </c>
       <c r="K39" s="15">
-        <f>'PFEA SRC'!O38</f>
+        <f>'PCFMA SRC'!O38</f>
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="19">
-        <f>'PFEA SRC'!S38</f>
+        <f>'PCFMA SRC'!S38</f>
         <v>0.27300000000000002</v>
       </c>
       <c r="N39" s="15">
-        <f>'PFEA SRC'!T38</f>
+        <f>'PCFMA SRC'!T38</f>
         <v>1.7299999999999999E-2</v>
       </c>
       <c r="O39" s="8"/>
       <c r="P39" s="19">
-        <f>'PFEA SRC'!X38</f>
+        <f>'PCFMA SRC'!X38</f>
         <v>0.27700000000000002</v>
       </c>
       <c r="Q39" s="15">
-        <f>'PFEA SRC'!Y38</f>
+        <f>'PCFMA SRC'!Y38</f>
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="R39" s="8"/>
       <c r="S39" s="56">
-        <f>'PFEA SRC'!AG38</f>
+        <f>'PCFMA SRC'!AG38</f>
         <v>0.2584838076651686</v>
       </c>
       <c r="T39" s="30">
-        <f>'PFEA SRC'!AI38</f>
+        <f>'PCFMA SRC'!AI38</f>
         <v>-2.5332851769089726E-2</v>
       </c>
       <c r="U39" s="11" t="str">
-        <f>'PFEA SRC'!AJ38</f>
+        <f>'PCFMA SRC'!AJ38</f>
         <v>go</v>
       </c>
     </row>
     <row r="40" spans="1:21" s="6" customFormat="1">
       <c r="A40" s="7" t="str">
-        <f>'PFEA SRC'!B39</f>
+        <f>'PCFMA SRC'!B39</f>
         <v>Kenton</v>
       </c>
       <c r="B40" s="7" t="str">
-        <f>'PFEA SRC'!C39</f>
+        <f>'PCFMA SRC'!C39</f>
         <v>golf-logistics</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="19">
-        <f>'PFEA SRC'!D39</f>
+        <f>'PCFMA SRC'!D39</f>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E40" s="15">
-        <f>'PFEA SRC'!E39</f>
+        <f>'PCFMA SRC'!E39</f>
         <v>0.80010000000000003</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="19">
-        <f>'PFEA SRC'!I39</f>
+        <f>'PCFMA SRC'!I39</f>
         <v>0.25900000000000001</v>
       </c>
       <c r="H40" s="15">
-        <f>'PFEA SRC'!J39</f>
+        <f>'PCFMA SRC'!J39</f>
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="19">
-        <f>'PFEA SRC'!N39</f>
+        <f>'PCFMA SRC'!N39</f>
         <v>0.46100000000000002</v>
       </c>
       <c r="K40" s="15">
-        <f>'PFEA SRC'!O39</f>
+        <f>'PCFMA SRC'!O39</f>
         <v>0</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="19">
-        <f>'PFEA SRC'!S39</f>
+        <f>'PCFMA SRC'!S39</f>
         <v>0.74299999999999999</v>
       </c>
       <c r="N40" s="15">
-        <f>'PFEA SRC'!T39</f>
+        <f>'PCFMA SRC'!T39</f>
         <v>0</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="19">
-        <f>'PFEA SRC'!X39</f>
+        <f>'PCFMA SRC'!X39</f>
         <v>0.71199999999999997</v>
       </c>
       <c r="Q40" s="15">
-        <f>'PFEA SRC'!Y39</f>
+        <f>'PCFMA SRC'!Y39</f>
         <v>0</v>
       </c>
       <c r="R40" s="8"/>
       <c r="S40" s="56">
-        <f>'PFEA SRC'!AG39</f>
+        <f>'PCFMA SRC'!AG39</f>
         <v>0.48400346598670385</v>
       </c>
       <c r="T40" s="30">
-        <f>'PFEA SRC'!AI39</f>
+        <f>'PCFMA SRC'!AI39</f>
         <v>0.20018680655244553</v>
       </c>
       <c r="U40" s="11" t="str">
-        <f>'PFEA SRC'!AJ39</f>
+        <f>'PCFMA SRC'!AJ39</f>
         <v>g-l</v>
       </c>
     </row>
     <row r="41" spans="1:21" s="6" customFormat="1">
       <c r="A41" s="7" t="str">
-        <f>'PFEA SRC'!B40</f>
+        <f>'PCFMA SRC'!B40</f>
         <v>Kenton</v>
       </c>
       <c r="B41" s="7" t="str">
-        <f>'PFEA SRC'!C40</f>
+        <f>'PCFMA SRC'!C40</f>
         <v>interested</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="19">
-        <f>'PFEA SRC'!D40</f>
+        <f>'PCFMA SRC'!D40</f>
         <v>0.11899999999999999</v>
       </c>
       <c r="E41" s="15">
-        <f>'PFEA SRC'!E40</f>
+        <f>'PCFMA SRC'!E40</f>
         <v>0.30769999999999997</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="19">
-        <f>'PFEA SRC'!I40</f>
+        <f>'PCFMA SRC'!I40</f>
         <v>2.3E-2</v>
       </c>
       <c r="H41" s="15">
-        <f>'PFEA SRC'!J40</f>
+        <f>'PCFMA SRC'!J40</f>
         <v>0.81169999999999998</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="19">
-        <f>'PFEA SRC'!N40</f>
+        <f>'PCFMA SRC'!N40</f>
         <v>0.17399999999999999</v>
       </c>
       <c r="K41" s="15">
-        <f>'PFEA SRC'!O40</f>
+        <f>'PCFMA SRC'!O40</f>
         <v>8.0399999999999999E-2</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="19">
-        <f>'PFEA SRC'!S40</f>
+        <f>'PCFMA SRC'!S40</f>
         <v>0.24299999999999999</v>
       </c>
       <c r="N41" s="15">
-        <f>'PFEA SRC'!T40</f>
+        <f>'PCFMA SRC'!T40</f>
         <v>4.0399999999999998E-2</v>
       </c>
       <c r="O41" s="8"/>
       <c r="P41" s="19">
-        <f>'PFEA SRC'!X40</f>
+        <f>'PCFMA SRC'!X40</f>
         <v>0.153</v>
       </c>
       <c r="Q41" s="15">
-        <f>'PFEA SRC'!Y40</f>
+        <f>'PCFMA SRC'!Y40</f>
         <v>0.1326</v>
       </c>
       <c r="R41" s="8"/>
       <c r="S41" s="56">
-        <f>'PFEA SRC'!AG40</f>
+        <f>'PCFMA SRC'!AG40</f>
         <v>0.24299999999999991</v>
       </c>
       <c r="T41" s="30">
-        <f>'PFEA SRC'!AI40</f>
+        <f>'PCFMA SRC'!AI40</f>
         <v>-4.0816659434258412E-2</v>
       </c>
       <c r="U41" s="11" t="str">
-        <f>'PFEA SRC'!AJ40</f>
+        <f>'PCFMA SRC'!AJ40</f>
         <v>in</v>
       </c>
     </row>
     <row r="42" spans="1:21" s="6" customFormat="1">
       <c r="A42" s="7" t="str">
-        <f>'PFEA SRC'!B41</f>
+        <f>'PCFMA SRC'!B41</f>
         <v>Kenton</v>
       </c>
       <c r="B42" s="7" t="str">
-        <f>'PFEA SRC'!C41</f>
+        <f>'PCFMA SRC'!C41</f>
         <v>urgency</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="19">
-        <f>'PFEA SRC'!D41</f>
+        <f>'PCFMA SRC'!D41</f>
         <v>0</v>
       </c>
       <c r="E42" s="15">
-        <f>'PFEA SRC'!E41</f>
+        <f>'PCFMA SRC'!E41</f>
         <v>1</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="19">
-        <f>'PFEA SRC'!I41</f>
+        <f>'PCFMA SRC'!I41</f>
         <v>0</v>
       </c>
       <c r="H42" s="15">
-        <f>'PFEA SRC'!J41</f>
+        <f>'PCFMA SRC'!J41</f>
         <v>1</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="19">
-        <f>'PFEA SRC'!N41</f>
+        <f>'PCFMA SRC'!N41</f>
         <v>0</v>
       </c>
       <c r="K42" s="15">
-        <f>'PFEA SRC'!O41</f>
+        <f>'PCFMA SRC'!O41</f>
         <v>1</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="19">
-        <f>'PFEA SRC'!S41</f>
+        <f>'PCFMA SRC'!S41</f>
         <v>0.123</v>
       </c>
       <c r="N42" s="15">
-        <f>'PFEA SRC'!T41</f>
+        <f>'PCFMA SRC'!T41</f>
         <v>0.2984</v>
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="19">
-        <f>'PFEA SRC'!X41</f>
+        <f>'PCFMA SRC'!X41</f>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="Q42" s="15">
-        <f>'PFEA SRC'!Y41</f>
+        <f>'PCFMA SRC'!Y41</f>
         <v>0.33040000000000003</v>
       </c>
       <c r="R42" s="8"/>
       <c r="S42" s="56">
-        <f>'PFEA SRC'!AG41</f>
+        <f>'PCFMA SRC'!AG41</f>
         <v>9.8999999999999949E-2</v>
       </c>
       <c r="T42" s="30">
-        <f>'PFEA SRC'!AI41</f>
+        <f>'PCFMA SRC'!AI41</f>
         <v>-0.18481665943425837</v>
       </c>
       <c r="U42" s="11" t="str">
-        <f>'PFEA SRC'!AJ41</f>
+        <f>'PCFMA SRC'!AJ41</f>
         <v>ur</v>
       </c>
     </row>
     <row r="43" spans="1:21" s="6" customFormat="1">
       <c r="A43" s="7" t="str">
-        <f>'PFEA SRC'!B42</f>
+        <f>'PCFMA SRC'!B42</f>
         <v>Kenton</v>
       </c>
       <c r="B43" s="7" t="str">
-        <f>'PFEA SRC'!C42</f>
+        <f>'PCFMA SRC'!C42</f>
         <v>work-logistics</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="19">
-        <f>'PFEA SRC'!D42</f>
+        <f>'PCFMA SRC'!D42</f>
         <v>0</v>
       </c>
       <c r="E43" s="15">
-        <f>'PFEA SRC'!E42</f>
+        <f>'PCFMA SRC'!E42</f>
         <v>1</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="19">
-        <f>'PFEA SRC'!I42</f>
+        <f>'PCFMA SRC'!I42</f>
         <v>0</v>
       </c>
       <c r="H43" s="15">
-        <f>'PFEA SRC'!J42</f>
+        <f>'PCFMA SRC'!J42</f>
         <v>1</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="19">
-        <f>'PFEA SRC'!N42</f>
+        <f>'PCFMA SRC'!N42</f>
         <v>1.9E-2</v>
       </c>
       <c r="K43" s="15">
-        <f>'PFEA SRC'!O42</f>
+        <f>'PCFMA SRC'!O42</f>
         <v>0.85389999999999999</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="19">
-        <f>'PFEA SRC'!S42</f>
+        <f>'PCFMA SRC'!S42</f>
         <v>0.17799999999999999</v>
       </c>
       <c r="N43" s="15">
-        <f>'PFEA SRC'!T42</f>
+        <f>'PCFMA SRC'!T42</f>
         <v>0.1361</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="19">
-        <f>'PFEA SRC'!X42</f>
+        <f>'PCFMA SRC'!X42</f>
         <v>0.309</v>
       </c>
       <c r="Q43" s="15">
-        <f>'PFEA SRC'!Y42</f>
+        <f>'PCFMA SRC'!Y42</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="R43" s="8"/>
       <c r="S43" s="56">
-        <f>'PFEA SRC'!AG42</f>
+        <f>'PCFMA SRC'!AG42</f>
         <v>0</v>
       </c>
       <c r="T43" s="30">
-        <f>'PFEA SRC'!AI42</f>
+        <f>'PCFMA SRC'!AI42</f>
         <v>-0.28381665943425832</v>
       </c>
       <c r="U43" s="11" t="str">
-        <f>'PFEA SRC'!AJ42</f>
+        <f>'PCFMA SRC'!AJ42</f>
         <v>w-l</v>
       </c>
     </row>
     <row r="44" spans="1:21" s="6" customFormat="1">
       <c r="A44" s="7" t="str">
-        <f>'PFEA SRC'!B43</f>
+        <f>'PCFMA SRC'!B43</f>
         <v>Kenton</v>
       </c>
       <c r="B44" s="7" t="str">
-        <f>'PFEA SRC'!C43</f>
+        <f>'PCFMA SRC'!C43</f>
         <v>work-pers</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="19">
-        <f>'PFEA SRC'!D43</f>
+        <f>'PCFMA SRC'!D43</f>
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="E44" s="15">
-        <f>'PFEA SRC'!E43</f>
+        <f>'PCFMA SRC'!E43</f>
         <v>0.63239999999999996</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="19">
-        <f>'PFEA SRC'!I43</f>
+        <f>'PCFMA SRC'!I43</f>
         <v>0</v>
       </c>
       <c r="H44" s="15">
-        <f>'PFEA SRC'!J43</f>
+        <f>'PCFMA SRC'!J43</f>
         <v>1</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="19">
-        <f>'PFEA SRC'!N43</f>
+        <f>'PCFMA SRC'!N43</f>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="K44" s="15">
-        <f>'PFEA SRC'!O43</f>
+        <f>'PCFMA SRC'!O43</f>
         <v>0.61240000000000006</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="19">
-        <f>'PFEA SRC'!S43</f>
+        <f>'PCFMA SRC'!S43</f>
         <v>0.372</v>
       </c>
       <c r="N44" s="15">
-        <f>'PFEA SRC'!T43</f>
+        <f>'PCFMA SRC'!T43</f>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="19">
-        <f>'PFEA SRC'!X43</f>
+        <f>'PCFMA SRC'!X43</f>
         <v>0.29599999999999999</v>
       </c>
       <c r="Q44" s="15">
-        <f>'PFEA SRC'!Y43</f>
+        <f>'PCFMA SRC'!Y43</f>
         <v>3.8E-3</v>
       </c>
       <c r="R44" s="8"/>
       <c r="S44" s="56">
-        <f>'PFEA SRC'!AG43</f>
+        <f>'PCFMA SRC'!AG43</f>
         <v>0.219756734490861</v>
       </c>
       <c r="T44" s="30">
-        <f>'PFEA SRC'!AI43</f>
+        <f>'PCFMA SRC'!AI43</f>
         <v>-6.4059924943397323E-2</v>
       </c>
       <c r="U44" s="11" t="str">
-        <f>'PFEA SRC'!AJ43</f>
+        <f>'PCFMA SRC'!AJ43</f>
         <v>w-p</v>
       </c>
     </row>
@@ -9343,678 +9361,678 @@
     </row>
     <row r="46" spans="1:21" s="6" customFormat="1">
       <c r="A46" s="7">
-        <f>'PFEA SRC'!B45</f>
+        <f>'PCFMA SRC'!B45</f>
         <v>0</v>
       </c>
       <c r="B46" s="7" t="str">
-        <f>'PFEA SRC'!C45</f>
+        <f>'PCFMA SRC'!C45</f>
         <v>ALL</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="19">
-        <f>'PFEA SRC'!D45</f>
+        <f>'PCFMA SRC'!D45</f>
         <v>0</v>
       </c>
       <c r="E46" s="15">
-        <f>'PFEA SRC'!E45</f>
+        <f>'PCFMA SRC'!E45</f>
         <v>0</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="19">
-        <f>'PFEA SRC'!I45</f>
+        <f>'PCFMA SRC'!I45</f>
         <v>0</v>
       </c>
       <c r="H46" s="15">
-        <f>'PFEA SRC'!J45</f>
+        <f>'PCFMA SRC'!J45</f>
         <v>0</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="19">
-        <f>'PFEA SRC'!N45</f>
+        <f>'PCFMA SRC'!N45</f>
         <v>0</v>
       </c>
       <c r="K46" s="15">
-        <f>'PFEA SRC'!O45</f>
+        <f>'PCFMA SRC'!O45</f>
         <v>0</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="19">
-        <f>'PFEA SRC'!S45</f>
+        <f>'PCFMA SRC'!S45</f>
         <v>0</v>
       </c>
       <c r="N46" s="15">
-        <f>'PFEA SRC'!T45</f>
+        <f>'PCFMA SRC'!T45</f>
         <v>0</v>
       </c>
       <c r="O46" s="8"/>
       <c r="P46" s="19">
-        <f>'PFEA SRC'!X45</f>
+        <f>'PCFMA SRC'!X45</f>
         <v>0</v>
       </c>
       <c r="Q46" s="15">
-        <f>'PFEA SRC'!Y45</f>
+        <f>'PCFMA SRC'!Y45</f>
         <v>0</v>
       </c>
       <c r="R46" s="8"/>
       <c r="S46" s="56">
-        <f>'PFEA SRC'!AG45</f>
+        <f>'PCFMA SRC'!AG45</f>
         <v>0</v>
       </c>
       <c r="T46" s="30"/>
       <c r="U46" s="11" t="str">
-        <f>'PFEA SRC'!AJ45</f>
+        <f>'PCFMA SRC'!AJ45</f>
         <v>ALL</v>
       </c>
     </row>
     <row r="47" spans="1:21" s="6" customFormat="1">
       <c r="A47" s="7">
-        <f>'PFEA SRC'!B46</f>
+        <f>'PCFMA SRC'!B46</f>
         <v>0</v>
       </c>
       <c r="B47" s="7" t="str">
-        <f>'PFEA SRC'!C46</f>
+        <f>'PCFMA SRC'!C46</f>
         <v>company-law</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="19">
-        <f>'PFEA SRC'!D46</f>
+        <f>'PCFMA SRC'!D46</f>
         <v>0</v>
       </c>
       <c r="E47" s="15">
-        <f>'PFEA SRC'!E46</f>
+        <f>'PCFMA SRC'!E46</f>
         <v>0</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="19">
-        <f>'PFEA SRC'!I46</f>
+        <f>'PCFMA SRC'!I46</f>
         <v>0</v>
       </c>
       <c r="H47" s="15">
-        <f>'PFEA SRC'!J46</f>
+        <f>'PCFMA SRC'!J46</f>
         <v>0</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="19">
-        <f>'PFEA SRC'!N46</f>
+        <f>'PCFMA SRC'!N46</f>
         <v>0</v>
       </c>
       <c r="K47" s="15">
-        <f>'PFEA SRC'!O46</f>
+        <f>'PCFMA SRC'!O46</f>
         <v>0</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="19">
-        <f>'PFEA SRC'!S46</f>
+        <f>'PCFMA SRC'!S46</f>
         <v>0</v>
       </c>
       <c r="N47" s="15">
-        <f>'PFEA SRC'!T46</f>
+        <f>'PCFMA SRC'!T46</f>
         <v>0</v>
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="19">
-        <f>'PFEA SRC'!X46</f>
+        <f>'PCFMA SRC'!X46</f>
         <v>0</v>
       </c>
       <c r="Q47" s="15">
-        <f>'PFEA SRC'!Y46</f>
+        <f>'PCFMA SRC'!Y46</f>
         <v>0</v>
       </c>
       <c r="R47" s="8"/>
       <c r="S47" s="56">
-        <f>'PFEA SRC'!AG46</f>
+        <f>'PCFMA SRC'!AG46</f>
         <v>0</v>
       </c>
       <c r="T47" s="30">
-        <f>'PFEA SRC'!AI46</f>
+        <f>'PCFMA SRC'!AI46</f>
         <v>0</v>
       </c>
       <c r="U47" s="11" t="str">
-        <f>'PFEA SRC'!AJ46</f>
+        <f>'PCFMA SRC'!AJ46</f>
         <v>c-l</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="6" customFormat="1">
       <c r="A48" s="7">
-        <f>'PFEA SRC'!B47</f>
+        <f>'PCFMA SRC'!B47</f>
         <v>0</v>
       </c>
       <c r="B48" s="7" t="str">
-        <f>'PFEA SRC'!C47</f>
+        <f>'PCFMA SRC'!C47</f>
         <v>interested</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="19">
-        <f>'PFEA SRC'!D47</f>
+        <f>'PCFMA SRC'!D47</f>
         <v>0</v>
       </c>
       <c r="E48" s="15">
-        <f>'PFEA SRC'!E47</f>
+        <f>'PCFMA SRC'!E47</f>
         <v>0</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="19">
-        <f>'PFEA SRC'!I47</f>
+        <f>'PCFMA SRC'!I47</f>
         <v>0</v>
       </c>
       <c r="H48" s="15">
-        <f>'PFEA SRC'!J47</f>
+        <f>'PCFMA SRC'!J47</f>
         <v>0</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="19">
-        <f>'PFEA SRC'!N47</f>
+        <f>'PCFMA SRC'!N47</f>
         <v>0</v>
       </c>
       <c r="K48" s="15">
-        <f>'PFEA SRC'!O47</f>
+        <f>'PCFMA SRC'!O47</f>
         <v>0</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="19">
-        <f>'PFEA SRC'!S47</f>
+        <f>'PCFMA SRC'!S47</f>
         <v>0</v>
       </c>
       <c r="N48" s="15">
-        <f>'PFEA SRC'!T47</f>
+        <f>'PCFMA SRC'!T47</f>
         <v>0</v>
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="19">
-        <f>'PFEA SRC'!X47</f>
+        <f>'PCFMA SRC'!X47</f>
         <v>0</v>
       </c>
       <c r="Q48" s="15">
-        <f>'PFEA SRC'!Y47</f>
+        <f>'PCFMA SRC'!Y47</f>
         <v>0</v>
       </c>
       <c r="R48" s="8"/>
       <c r="S48" s="56">
-        <f>'PFEA SRC'!AG47</f>
+        <f>'PCFMA SRC'!AG47</f>
         <v>0</v>
       </c>
       <c r="T48" s="30">
-        <f>'PFEA SRC'!AI47</f>
+        <f>'PCFMA SRC'!AI47</f>
         <v>0</v>
       </c>
       <c r="U48" s="11" t="str">
-        <f>'PFEA SRC'!AJ47</f>
+        <f>'PCFMA SRC'!AJ47</f>
         <v>in</v>
       </c>
     </row>
     <row r="49" spans="1:23" s="6" customFormat="1">
       <c r="A49" s="7">
-        <f>'PFEA SRC'!B48</f>
+        <f>'PCFMA SRC'!B48</f>
         <v>0</v>
       </c>
       <c r="B49" s="7" t="str">
-        <f>'PFEA SRC'!C48</f>
+        <f>'PCFMA SRC'!C48</f>
         <v>riding</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="19">
-        <f>'PFEA SRC'!D48</f>
+        <f>'PCFMA SRC'!D48</f>
         <v>0</v>
       </c>
       <c r="E49" s="15">
-        <f>'PFEA SRC'!E48</f>
+        <f>'PCFMA SRC'!E48</f>
         <v>0</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="19">
-        <f>'PFEA SRC'!I48</f>
+        <f>'PCFMA SRC'!I48</f>
         <v>0</v>
       </c>
       <c r="H49" s="15">
-        <f>'PFEA SRC'!J48</f>
+        <f>'PCFMA SRC'!J48</f>
         <v>0</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="19">
-        <f>'PFEA SRC'!N48</f>
+        <f>'PCFMA SRC'!N48</f>
         <v>0</v>
       </c>
       <c r="K49" s="15">
-        <f>'PFEA SRC'!O48</f>
+        <f>'PCFMA SRC'!O48</f>
         <v>0</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="19">
-        <f>'PFEA SRC'!S48</f>
+        <f>'PCFMA SRC'!S48</f>
         <v>0</v>
       </c>
       <c r="N49" s="15">
-        <f>'PFEA SRC'!T48</f>
+        <f>'PCFMA SRC'!T48</f>
         <v>0</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="19">
-        <f>'PFEA SRC'!X48</f>
+        <f>'PCFMA SRC'!X48</f>
         <v>0</v>
       </c>
       <c r="Q49" s="15">
-        <f>'PFEA SRC'!Y48</f>
+        <f>'PCFMA SRC'!Y48</f>
         <v>0</v>
       </c>
       <c r="R49" s="8"/>
       <c r="S49" s="56">
-        <f>'PFEA SRC'!AG48</f>
+        <f>'PCFMA SRC'!AG48</f>
         <v>0</v>
       </c>
       <c r="T49" s="30">
-        <f>'PFEA SRC'!AI48</f>
+        <f>'PCFMA SRC'!AI48</f>
         <v>0</v>
       </c>
       <c r="U49" s="11" t="str">
-        <f>'PFEA SRC'!AJ48</f>
+        <f>'PCFMA SRC'!AJ48</f>
         <v>ri</v>
       </c>
     </row>
     <row r="50" spans="1:23" s="6" customFormat="1">
       <c r="A50" s="7">
-        <f>'PFEA SRC'!B49</f>
+        <f>'PCFMA SRC'!B49</f>
         <v>0</v>
       </c>
       <c r="B50" s="7" t="str">
-        <f>'PFEA SRC'!C49</f>
+        <f>'PCFMA SRC'!C49</f>
         <v>riding-arrangements</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="19">
-        <f>'PFEA SRC'!D49</f>
+        <f>'PCFMA SRC'!D49</f>
         <v>0</v>
       </c>
       <c r="E50" s="15">
-        <f>'PFEA SRC'!E49</f>
+        <f>'PCFMA SRC'!E49</f>
         <v>0</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="19">
-        <f>'PFEA SRC'!I49</f>
+        <f>'PCFMA SRC'!I49</f>
         <v>0</v>
       </c>
       <c r="H50" s="15">
-        <f>'PFEA SRC'!J49</f>
+        <f>'PCFMA SRC'!J49</f>
         <v>0</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="19">
-        <f>'PFEA SRC'!N49</f>
+        <f>'PCFMA SRC'!N49</f>
         <v>0</v>
       </c>
       <c r="K50" s="15">
-        <f>'PFEA SRC'!O49</f>
+        <f>'PCFMA SRC'!O49</f>
         <v>0</v>
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="19">
-        <f>'PFEA SRC'!S49</f>
+        <f>'PCFMA SRC'!S49</f>
         <v>0</v>
       </c>
       <c r="N50" s="15">
-        <f>'PFEA SRC'!T49</f>
+        <f>'PCFMA SRC'!T49</f>
         <v>0</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="19">
-        <f>'PFEA SRC'!X49</f>
+        <f>'PCFMA SRC'!X49</f>
         <v>0</v>
       </c>
       <c r="Q50" s="15">
-        <f>'PFEA SRC'!Y49</f>
+        <f>'PCFMA SRC'!Y49</f>
         <v>0</v>
       </c>
       <c r="R50" s="8"/>
       <c r="S50" s="56">
-        <f>'PFEA SRC'!AG49</f>
+        <f>'PCFMA SRC'!AG49</f>
         <v>0</v>
       </c>
       <c r="T50" s="30">
-        <f>'PFEA SRC'!AI49</f>
+        <f>'PCFMA SRC'!AI49</f>
         <v>0</v>
       </c>
       <c r="U50" s="11" t="str">
-        <f>'PFEA SRC'!AJ49</f>
+        <f>'PCFMA SRC'!AJ49</f>
         <v>r-a</v>
       </c>
     </row>
     <row r="51" spans="1:23" s="6" customFormat="1">
       <c r="A51" s="7">
-        <f>'PFEA SRC'!B50</f>
+        <f>'PCFMA SRC'!B50</f>
         <v>0</v>
       </c>
       <c r="B51" s="7" t="str">
-        <f>'PFEA SRC'!C50</f>
+        <f>'PCFMA SRC'!C50</f>
         <v>school-importance</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="19">
-        <f>'PFEA SRC'!D50</f>
+        <f>'PCFMA SRC'!D50</f>
         <v>0</v>
       </c>
       <c r="E51" s="15">
-        <f>'PFEA SRC'!E50</f>
+        <f>'PCFMA SRC'!E50</f>
         <v>0</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="19">
-        <f>'PFEA SRC'!I50</f>
+        <f>'PCFMA SRC'!I50</f>
         <v>0</v>
       </c>
       <c r="H51" s="15">
-        <f>'PFEA SRC'!J50</f>
+        <f>'PCFMA SRC'!J50</f>
         <v>0</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="19">
-        <f>'PFEA SRC'!N50</f>
+        <f>'PCFMA SRC'!N50</f>
         <v>0</v>
       </c>
       <c r="K51" s="15">
-        <f>'PFEA SRC'!O50</f>
+        <f>'PCFMA SRC'!O50</f>
         <v>0</v>
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="19">
-        <f>'PFEA SRC'!S50</f>
+        <f>'PCFMA SRC'!S50</f>
         <v>0</v>
       </c>
       <c r="N51" s="15">
-        <f>'PFEA SRC'!T50</f>
+        <f>'PCFMA SRC'!T50</f>
         <v>0</v>
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="19">
-        <f>'PFEA SRC'!X50</f>
+        <f>'PCFMA SRC'!X50</f>
         <v>0</v>
       </c>
       <c r="Q51" s="15">
-        <f>'PFEA SRC'!Y50</f>
+        <f>'PCFMA SRC'!Y50</f>
         <v>0</v>
       </c>
       <c r="R51" s="8"/>
       <c r="S51" s="56">
-        <f>'PFEA SRC'!AG50</f>
+        <f>'PCFMA SRC'!AG50</f>
         <v>0</v>
       </c>
       <c r="T51" s="30">
-        <f>'PFEA SRC'!AI50</f>
+        <f>'PCFMA SRC'!AI50</f>
         <v>0</v>
       </c>
       <c r="U51" s="11" t="str">
-        <f>'PFEA SRC'!AJ50</f>
+        <f>'PCFMA SRC'!AJ50</f>
         <v>s-i</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="6" customFormat="1">
       <c r="A52" s="7">
-        <f>'PFEA SRC'!B51</f>
+        <f>'PCFMA SRC'!B51</f>
         <v>0</v>
       </c>
       <c r="B52" s="7" t="str">
-        <f>'PFEA SRC'!C51</f>
+        <f>'PCFMA SRC'!C51</f>
         <v>urgency</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="19">
-        <f>'PFEA SRC'!D51</f>
+        <f>'PCFMA SRC'!D51</f>
         <v>0</v>
       </c>
       <c r="E52" s="15">
-        <f>'PFEA SRC'!E51</f>
+        <f>'PCFMA SRC'!E51</f>
         <v>0</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="19">
-        <f>'PFEA SRC'!I51</f>
+        <f>'PCFMA SRC'!I51</f>
         <v>0</v>
       </c>
       <c r="H52" s="15">
-        <f>'PFEA SRC'!J51</f>
+        <f>'PCFMA SRC'!J51</f>
         <v>0</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="19">
-        <f>'PFEA SRC'!N51</f>
+        <f>'PCFMA SRC'!N51</f>
         <v>0</v>
       </c>
       <c r="K52" s="15">
-        <f>'PFEA SRC'!O51</f>
+        <f>'PCFMA SRC'!O51</f>
         <v>0</v>
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="19">
-        <f>'PFEA SRC'!S51</f>
+        <f>'PCFMA SRC'!S51</f>
         <v>0</v>
       </c>
       <c r="N52" s="15">
-        <f>'PFEA SRC'!T51</f>
+        <f>'PCFMA SRC'!T51</f>
         <v>0</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="19">
-        <f>'PFEA SRC'!X51</f>
+        <f>'PCFMA SRC'!X51</f>
         <v>0</v>
       </c>
       <c r="Q52" s="15">
-        <f>'PFEA SRC'!Y51</f>
+        <f>'PCFMA SRC'!Y51</f>
         <v>0</v>
       </c>
       <c r="R52" s="8"/>
       <c r="S52" s="56">
-        <f>'PFEA SRC'!AG51</f>
+        <f>'PCFMA SRC'!AG51</f>
         <v>0</v>
       </c>
       <c r="T52" s="30">
-        <f>'PFEA SRC'!AI51</f>
+        <f>'PCFMA SRC'!AI51</f>
         <v>0</v>
       </c>
       <c r="U52" s="11" t="str">
-        <f>'PFEA SRC'!AJ51</f>
+        <f>'PCFMA SRC'!AJ51</f>
         <v>ur</v>
       </c>
     </row>
     <row r="53" spans="1:23" s="6" customFormat="1">
       <c r="A53" s="7">
-        <f>'PFEA SRC'!B52</f>
+        <f>'PCFMA SRC'!B52</f>
         <v>0</v>
       </c>
       <c r="B53" s="7" t="str">
-        <f>'PFEA SRC'!C52</f>
+        <f>'PCFMA SRC'!C52</f>
         <v>work-logistics</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="19">
-        <f>'PFEA SRC'!D52</f>
+        <f>'PCFMA SRC'!D52</f>
         <v>0</v>
       </c>
       <c r="E53" s="15">
-        <f>'PFEA SRC'!E52</f>
+        <f>'PCFMA SRC'!E52</f>
         <v>0</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="19">
-        <f>'PFEA SRC'!I52</f>
+        <f>'PCFMA SRC'!I52</f>
         <v>0</v>
       </c>
       <c r="H53" s="15">
-        <f>'PFEA SRC'!J52</f>
+        <f>'PCFMA SRC'!J52</f>
         <v>0</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="19">
-        <f>'PFEA SRC'!N52</f>
+        <f>'PCFMA SRC'!N52</f>
         <v>0</v>
       </c>
       <c r="K53" s="15">
-        <f>'PFEA SRC'!O52</f>
+        <f>'PCFMA SRC'!O52</f>
         <v>0</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="19">
-        <f>'PFEA SRC'!S52</f>
+        <f>'PCFMA SRC'!S52</f>
         <v>0</v>
       </c>
       <c r="N53" s="15">
-        <f>'PFEA SRC'!T52</f>
+        <f>'PCFMA SRC'!T52</f>
         <v>0</v>
       </c>
       <c r="O53" s="8"/>
       <c r="P53" s="19">
-        <f>'PFEA SRC'!X52</f>
+        <f>'PCFMA SRC'!X52</f>
         <v>0</v>
       </c>
       <c r="Q53" s="15">
-        <f>'PFEA SRC'!Y52</f>
+        <f>'PCFMA SRC'!Y52</f>
         <v>0</v>
       </c>
       <c r="R53" s="8"/>
       <c r="S53" s="56">
-        <f>'PFEA SRC'!AG52</f>
+        <f>'PCFMA SRC'!AG52</f>
         <v>0</v>
       </c>
       <c r="T53" s="30">
-        <f>'PFEA SRC'!AI52</f>
+        <f>'PCFMA SRC'!AI52</f>
         <v>0</v>
       </c>
       <c r="U53" s="11" t="str">
-        <f>'PFEA SRC'!AJ52</f>
+        <f>'PCFMA SRC'!AJ52</f>
         <v>w-l</v>
       </c>
     </row>
     <row r="54" spans="1:23" s="6" customFormat="1">
       <c r="A54" s="7">
-        <f>'PFEA SRC'!B53</f>
+        <f>'PCFMA SRC'!B53</f>
         <v>0</v>
       </c>
       <c r="B54" s="7" t="str">
-        <f>'PFEA SRC'!C53</f>
+        <f>'PCFMA SRC'!C53</f>
         <v>work-pers</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="19">
-        <f>'PFEA SRC'!D53</f>
+        <f>'PCFMA SRC'!D53</f>
         <v>0</v>
       </c>
       <c r="E54" s="15">
-        <f>'PFEA SRC'!E53</f>
+        <f>'PCFMA SRC'!E53</f>
         <v>0</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="19">
-        <f>'PFEA SRC'!I53</f>
+        <f>'PCFMA SRC'!I53</f>
         <v>0</v>
       </c>
       <c r="H54" s="15">
-        <f>'PFEA SRC'!J53</f>
+        <f>'PCFMA SRC'!J53</f>
         <v>0</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="19">
-        <f>'PFEA SRC'!N53</f>
+        <f>'PCFMA SRC'!N53</f>
         <v>0</v>
       </c>
       <c r="K54" s="15">
-        <f>'PFEA SRC'!O53</f>
+        <f>'PCFMA SRC'!O53</f>
         <v>0</v>
       </c>
       <c r="L54" s="8"/>
       <c r="M54" s="19">
-        <f>'PFEA SRC'!S53</f>
+        <f>'PCFMA SRC'!S53</f>
         <v>0</v>
       </c>
       <c r="N54" s="15">
-        <f>'PFEA SRC'!T53</f>
+        <f>'PCFMA SRC'!T53</f>
         <v>0</v>
       </c>
       <c r="O54" s="8"/>
       <c r="P54" s="19">
-        <f>'PFEA SRC'!X53</f>
+        <f>'PCFMA SRC'!X53</f>
         <v>0</v>
       </c>
       <c r="Q54" s="15">
-        <f>'PFEA SRC'!Y53</f>
+        <f>'PCFMA SRC'!Y53</f>
         <v>0</v>
       </c>
       <c r="R54" s="8"/>
       <c r="S54" s="56">
-        <f>'PFEA SRC'!AG53</f>
+        <f>'PCFMA SRC'!AG53</f>
         <v>0</v>
       </c>
       <c r="T54" s="30">
-        <f>'PFEA SRC'!AI53</f>
+        <f>'PCFMA SRC'!AI53</f>
         <v>0</v>
       </c>
       <c r="U54" s="11" t="str">
-        <f>'PFEA SRC'!AJ53</f>
+        <f>'PCFMA SRC'!AJ53</f>
         <v>w-p</v>
       </c>
     </row>
     <row r="55" spans="1:23" s="6" customFormat="1">
       <c r="A55" s="7">
-        <f>'PFEA SRC'!B54</f>
+        <f>'PCFMA SRC'!B54</f>
         <v>0</v>
       </c>
       <c r="B55" s="7" t="str">
-        <f>'PFEA SRC'!C54</f>
+        <f>'PCFMA SRC'!C54</f>
         <v>work-relevant</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="19">
-        <f>'PFEA SRC'!D54</f>
+        <f>'PCFMA SRC'!D54</f>
         <v>0</v>
       </c>
       <c r="E55" s="15">
-        <f>'PFEA SRC'!E54</f>
+        <f>'PCFMA SRC'!E54</f>
         <v>0</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="19">
-        <f>'PFEA SRC'!I54</f>
+        <f>'PCFMA SRC'!I54</f>
         <v>0</v>
       </c>
       <c r="H55" s="15">
-        <f>'PFEA SRC'!J54</f>
+        <f>'PCFMA SRC'!J54</f>
         <v>0</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="19">
-        <f>'PFEA SRC'!N54</f>
+        <f>'PCFMA SRC'!N54</f>
         <v>0</v>
       </c>
       <c r="K55" s="15">
-        <f>'PFEA SRC'!O54</f>
+        <f>'PCFMA SRC'!O54</f>
         <v>0</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="19">
-        <f>'PFEA SRC'!S54</f>
+        <f>'PCFMA SRC'!S54</f>
         <v>0</v>
       </c>
       <c r="N55" s="15">
-        <f>'PFEA SRC'!T54</f>
+        <f>'PCFMA SRC'!T54</f>
         <v>0</v>
       </c>
       <c r="O55" s="8"/>
       <c r="P55" s="19">
-        <f>'PFEA SRC'!X54</f>
+        <f>'PCFMA SRC'!X54</f>
         <v>0</v>
       </c>
       <c r="Q55" s="15">
-        <f>'PFEA SRC'!Y54</f>
+        <f>'PCFMA SRC'!Y54</f>
         <v>0</v>
       </c>
       <c r="R55" s="8"/>
       <c r="S55" s="56">
-        <f>'PFEA SRC'!AG54</f>
+        <f>'PCFMA SRC'!AG54</f>
         <v>0</v>
       </c>
       <c r="T55" s="30">
-        <f>'PFEA SRC'!AI54</f>
+        <f>'PCFMA SRC'!AI54</f>
         <v>0</v>
       </c>
       <c r="U55" s="11" t="str">
-        <f>'PFEA SRC'!AJ54</f>
+        <f>'PCFMA SRC'!AJ54</f>
         <v>w-r</v>
       </c>
     </row>
@@ -10042,41 +10060,41 @@
       <c r="U56" s="11"/>
     </row>
     <row r="57" spans="1:23" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A57" s="60" t="str">
-        <f>'PFEA SRC'!$B$65</f>
+      <c r="A57" s="64" t="str">
+        <f>'PCFMA SRC'!$B$65</f>
         <v>Model label:</v>
       </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="63" t="str">
-        <f>'PFEA SRC'!D65</f>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65" t="str">
+        <f>'PCFMA SRC'!D65</f>
         <v>V-M3</v>
       </c>
-      <c r="E57" s="63"/>
+      <c r="E57" s="65"/>
       <c r="F57" s="47"/>
-      <c r="G57" s="63" t="str">
-        <f>'PFEA SRC'!I65</f>
+      <c r="G57" s="65" t="str">
+        <f>'PCFMA SRC'!I65</f>
         <v>B-M3</v>
       </c>
-      <c r="H57" s="63"/>
+      <c r="H57" s="65"/>
       <c r="I57" s="47"/>
-      <c r="J57" s="63" t="str">
-        <f>'PFEA SRC'!N65</f>
+      <c r="J57" s="65" t="str">
+        <f>'PCFMA SRC'!N65</f>
         <v>E-M3</v>
       </c>
-      <c r="K57" s="63"/>
+      <c r="K57" s="65"/>
       <c r="L57" s="47"/>
-      <c r="M57" s="63" t="str">
-        <f>'PFEA SRC'!S65</f>
+      <c r="M57" s="65" t="str">
+        <f>'PCFMA SRC'!S65</f>
         <v>V4-M3</v>
       </c>
-      <c r="N57" s="63"/>
+      <c r="N57" s="65"/>
       <c r="O57" s="47"/>
-      <c r="P57" s="63" t="str">
-        <f>'PFEA SRC'!X65</f>
+      <c r="P57" s="65" t="str">
+        <f>'PCFMA SRC'!X65</f>
         <v>V4o-M3</v>
       </c>
-      <c r="Q57" s="63"/>
+      <c r="Q57" s="65"/>
       <c r="R57" s="8"/>
       <c r="S57" s="19"/>
       <c r="T57" s="44"/>
@@ -10085,41 +10103,41 @@
       <c r="W57" s="43"/>
     </row>
     <row r="58" spans="1:23" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="60" t="str">
-        <f>'PFEA SRC'!$B$57</f>
+      <c r="A58" s="64" t="str">
+        <f>'PCFMA SRC'!$B$57</f>
         <v>Percentage of significant rows:</v>
       </c>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="64">
-        <f>'PFEA SRC'!G57</f>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="66">
+        <f>'PCFMA SRC'!G57</f>
         <v>0.25</v>
       </c>
-      <c r="E58" s="64"/>
+      <c r="E58" s="66"/>
       <c r="F58" s="55"/>
-      <c r="G58" s="64">
-        <f>'PFEA SRC'!L57</f>
+      <c r="G58" s="66">
+        <f>'PCFMA SRC'!L57</f>
         <v>0.32142857142857145</v>
       </c>
-      <c r="H58" s="64"/>
+      <c r="H58" s="66"/>
       <c r="I58" s="55"/>
-      <c r="J58" s="64">
-        <f>'PFEA SRC'!Q57</f>
+      <c r="J58" s="66">
+        <f>'PCFMA SRC'!Q57</f>
         <v>0.39285714285714285</v>
       </c>
-      <c r="K58" s="64"/>
+      <c r="K58" s="66"/>
       <c r="L58" s="55"/>
-      <c r="M58" s="64">
-        <f>'PFEA SRC'!V57</f>
+      <c r="M58" s="66">
+        <f>'PCFMA SRC'!V57</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="N58" s="64"/>
+      <c r="N58" s="66"/>
       <c r="O58" s="55"/>
-      <c r="P58" s="64">
-        <f>'PFEA SRC'!AA57</f>
+      <c r="P58" s="66">
+        <f>'PCFMA SRC'!AA57</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Q58" s="64"/>
+      <c r="Q58" s="66"/>
       <c r="R58" s="8"/>
       <c r="S58" s="19"/>
       <c r="T58" s="44"/>
@@ -10127,82 +10145,82 @@
       <c r="V58" s="43"/>
     </row>
     <row r="59" spans="1:23" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A59" s="60" t="str">
-        <f>'PFEA SRC'!B61</f>
-        <v>Mean rpb (significant only, excl. ALL):</v>
-      </c>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="62">
-        <f>'PFEA SRC'!D61</f>
+      <c r="A59" s="64" t="str">
+        <f>'PCFMA SRC'!B61</f>
+        <v>Mean phi (significant only, excl. ALL):</v>
+      </c>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="63">
+        <f>'PCFMA SRC'!D61</f>
         <v>0.13585714285714287</v>
       </c>
-      <c r="E59" s="62"/>
+      <c r="E59" s="63"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="62">
-        <f>'PFEA SRC'!I61</f>
+      <c r="G59" s="63">
+        <f>'PCFMA SRC'!I61</f>
         <v>0.18833333333333332</v>
       </c>
-      <c r="H59" s="62"/>
+      <c r="H59" s="63"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="62">
-        <f>'PFEA SRC'!N61</f>
+      <c r="J59" s="63">
+        <f>'PCFMA SRC'!N61</f>
         <v>0.159</v>
       </c>
-      <c r="K59" s="62"/>
+      <c r="K59" s="63"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="62">
-        <f>'PFEA SRC'!S61</f>
+      <c r="M59" s="63">
+        <f>'PCFMA SRC'!S61</f>
         <v>0.38131578947368427</v>
       </c>
-      <c r="N59" s="62"/>
+      <c r="N59" s="63"/>
       <c r="O59" s="10"/>
-      <c r="P59" s="62">
-        <f>'PFEA SRC'!X61</f>
+      <c r="P59" s="63">
+        <f>'PCFMA SRC'!X61</f>
         <v>0.37066666666666664</v>
       </c>
-      <c r="Q59" s="62"/>
+      <c r="Q59" s="63"/>
       <c r="R59" s="10"/>
       <c r="S59" s="56"/>
       <c r="T59" s="31"/>
       <c r="U59" s="11"/>
     </row>
     <row r="60" spans="1:23" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A60" s="60" t="str">
-        <f>'PFEA SRC'!B62</f>
-        <v>Mean rpb (significant only, ALL only):</v>
-      </c>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="62" t="str">
-        <f>'PFEA SRC'!D62</f>
+      <c r="A60" s="64" t="str">
+        <f>'PCFMA SRC'!B62</f>
+        <v>Mean phi (significant only, ALL only):</v>
+      </c>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="63" t="str">
+        <f>'PCFMA SRC'!D62</f>
         <v>n/a</v>
       </c>
-      <c r="E60" s="62"/>
+      <c r="E60" s="63"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="62">
-        <f>'PFEA SRC'!I62</f>
+      <c r="G60" s="63">
+        <f>'PCFMA SRC'!I62</f>
         <v>9.5333333333333325E-2</v>
       </c>
-      <c r="H60" s="62"/>
+      <c r="H60" s="63"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="62">
-        <f>'PFEA SRC'!N62</f>
+      <c r="J60" s="63">
+        <f>'PCFMA SRC'!N62</f>
         <v>0.12566666666666668</v>
       </c>
-      <c r="K60" s="62"/>
+      <c r="K60" s="63"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="62">
-        <f>'PFEA SRC'!S62</f>
+      <c r="M60" s="63">
+        <f>'PCFMA SRC'!S62</f>
         <v>0.38766666666666666</v>
       </c>
-      <c r="N60" s="62"/>
+      <c r="N60" s="63"/>
       <c r="O60" s="10"/>
-      <c r="P60" s="62">
-        <f>'PFEA SRC'!X62</f>
+      <c r="P60" s="63">
+        <f>'PCFMA SRC'!X62</f>
         <v>0.37966666666666665</v>
       </c>
-      <c r="Q60" s="62"/>
+      <c r="Q60" s="63"/>
       <c r="R60" s="10"/>
       <c r="S60" s="56"/>
       <c r="T60" s="31"/>
@@ -10344,6 +10362,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="D60:E60"/>
@@ -10356,30 +10395,9 @@
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="M59:N59"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A3:T3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10387,8 +10405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10420,7 +10438,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="18">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18">

--- a/study/data/stats/combined/stats-combined-eval-agreement-m3.xlsx
+++ b/study/data/stats/combined/stats-combined-eval-agreement-m3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="1212" windowWidth="46128" windowHeight="19668" activeTab="2"/>
+    <workbookView xWindow="336" yWindow="7200" windowWidth="46128" windowHeight="14760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PCFMA SRC" sheetId="14" r:id="rId1"/>
@@ -743,29 +743,29 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,7 +884,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.17857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.32142857142857145</c:v>
@@ -896,7 +896,7 @@
                   <c:v>0.7857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.9285714285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,24 +904,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="51368320"/>
-        <c:axId val="51369856"/>
+        <c:axId val="152954752"/>
+        <c:axId val="152956288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51368320"/>
+        <c:axId val="152954752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51369856"/>
+        <c:crossAx val="152956288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51369856"/>
+        <c:axId val="152956288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -931,7 +931,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51368320"/>
+        <c:crossAx val="152954752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -941,7 +941,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1098,13 +1098,13 @@
                   <c:v>0.18876172366952312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12577031465193428</c:v>
+                  <c:v>0.12510320747779741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39126184174719353</c:v>
+                  <c:v>0.39379076009155356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38103089092863707</c:v>
+                  <c:v>0.38340855491472986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,33 +1112,33 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="51538944"/>
-        <c:axId val="51545216"/>
+        <c:axId val="187055488"/>
+        <c:axId val="52442240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51538944"/>
+        <c:axId val="187055488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51545216"/>
+        <c:crossAx val="52442240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51545216"/>
+        <c:axId val="52442240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.70000000000000051"/>
+          <c:max val="0.70000000000000062"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51538944"/>
+        <c:crossAx val="187055488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1148,7 +1148,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1301,11 +1301,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="51564544"/>
-        <c:axId val="51566848"/>
+        <c:axId val="52454144"/>
+        <c:axId val="52455680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51564544"/>
+        <c:axId val="52454144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,24 +1324,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51566848"/>
+        <c:crossAx val="52455680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51566848"/>
+        <c:axId val="52455680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.85000000000000053"/>
+          <c:max val="0.85000000000000064"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51564544"/>
+        <c:crossAx val="52454144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1351,7 +1351,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1516,11 +1516,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="53210496"/>
-        <c:axId val="53329920"/>
+        <c:axId val="52463488"/>
+        <c:axId val="52465024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53210496"/>
+        <c:axId val="52463488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,14 +1539,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53329920"/>
+        <c:crossAx val="52465024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53329920"/>
+        <c:axId val="52465024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.92"/>
@@ -1556,7 +1556,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53210496"/>
+        <c:crossAx val="52463488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1566,7 +1566,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1613,7 +1613,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.55806368597208078"/>
+          <c:x val="0.55806368597208067"/>
           <c:y val="6.6076008791583957E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1684,28 +1684,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.28381665943425832</c:v>
+                  <c:v>0.28732711712953901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73407560648515713</c:v>
+                  <c:v>0.72968750522655657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2584838076651686</c:v>
+                  <c:v>0.25881998779347348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48400346598670385</c:v>
+                  <c:v>0.56858061705713892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24299999999999991</c:v>
+                  <c:v>0.254</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8999999999999949E-2</c:v>
+                  <c:v>0.10000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.219756734490861</c:v>
+                  <c:v>0.34598568639798655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,11 +1713,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="115742208"/>
-        <c:axId val="115748864"/>
+        <c:axId val="52489216"/>
+        <c:axId val="52491008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115742208"/>
+        <c:axId val="52489216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,14 +1736,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115748864"/>
+        <c:crossAx val="52491008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115748864"/>
+        <c:axId val="52491008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1753,7 +1753,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115742208"/>
+        <c:crossAx val="52489216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1811,7 +1811,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361382E-2"/>
+          <c:y val="6.3365921852361409E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1904,11 +1904,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="193385216"/>
-        <c:axId val="193422080"/>
+        <c:axId val="52572544"/>
+        <c:axId val="52574080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193385216"/>
+        <c:axId val="52572544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,14 +1927,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193422080"/>
+        <c:crossAx val="52574080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193422080"/>
+        <c:axId val="52574080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1944,7 +1944,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193385216"/>
+        <c:crossAx val="52572544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1954,7 +1954,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2002,7 +2002,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361437E-2"/>
+          <c:y val="6.3365921852361465E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2113,11 +2113,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="193469440"/>
-        <c:axId val="196141824"/>
+        <c:axId val="52598272"/>
+        <c:axId val="52599808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193469440"/>
+        <c:axId val="52598272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,14 +2136,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196141824"/>
+        <c:crossAx val="52599808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196141824"/>
+        <c:axId val="52599808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2153,7 +2153,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193469440"/>
+        <c:crossAx val="52598272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2163,7 +2163,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AA44" sqref="AA44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5088,14 +5088,14 @@
         <v>10</v>
       </c>
       <c r="D36" s="32">
-        <v>7.5999999999999998E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E36" s="33">
-        <v>7.9399999999999998E-2</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="F36" s="33">
         <f t="shared" si="2"/>
-        <v>7.6146834540022773E-2</v>
+        <v>7.4135520211315323E-2</v>
       </c>
       <c r="G36" s="8"/>
       <c r="I36" s="32">
@@ -5112,55 +5112,55 @@
         <v>48</v>
       </c>
       <c r="N36" s="32">
-        <v>0.129</v>
+        <v>0.127</v>
       </c>
       <c r="O36" s="33">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="P36" s="33">
         <f t="shared" si="4"/>
-        <v>0.12972279364857961</v>
+        <v>0.12768947910008707</v>
       </c>
       <c r="Q36" s="8" t="s">
         <v>48</v>
       </c>
       <c r="S36" s="32">
-        <v>0.46500000000000002</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="T36" s="33">
         <v>0</v>
       </c>
       <c r="U36" s="33">
         <f t="shared" si="5"/>
-        <v>0.50367188727758061</v>
+        <v>0.51264050779128001</v>
       </c>
       <c r="V36" s="8" t="s">
         <v>48</v>
       </c>
       <c r="X36" s="32">
-        <v>0.39900000000000002</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="Y36" s="33">
         <v>0</v>
       </c>
       <c r="Z36" s="33">
         <f t="shared" si="6"/>
-        <v>0.4224590200651368</v>
+        <v>0.43081237650398269</v>
       </c>
       <c r="AA36" s="8" t="s">
         <v>48</v>
       </c>
       <c r="AC36" s="35">
         <f t="shared" si="7"/>
-        <v>0.29182824451353995</v>
+        <v>0.29565041011455312</v>
       </c>
       <c r="AF36" s="36">
         <f t="shared" si="8"/>
-        <v>0.27600000000000002</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="AG36" s="36">
         <f t="shared" ref="AG36:AG43" si="11">(EXP(2 * AC36) - 1) / (EXP(2 * AC36) + 1)</f>
-        <v>0.28381665943425832</v>
+        <v>0.28732711712953901</v>
       </c>
       <c r="AH36" s="36"/>
       <c r="AI36" s="30">
@@ -5182,14 +5182,14 @@
         <v>11</v>
       </c>
       <c r="D37" s="32">
-        <v>5.6000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E37" s="33">
-        <v>0.62380000000000002</v>
+        <v>0.86409999999999998</v>
       </c>
       <c r="F37" s="33">
         <f t="shared" si="2"/>
-        <v>5.6058649060353107E-2</v>
+        <v>1.9002286828680801E-2</v>
       </c>
       <c r="G37" s="8"/>
       <c r="I37" s="32">
@@ -5204,58 +5204,58 @@
       </c>
       <c r="L37" s="8"/>
       <c r="N37" s="32">
-        <v>5.0999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O37" s="33">
-        <v>0.5988</v>
+        <v>0.60929999999999995</v>
       </c>
       <c r="P37" s="33">
         <f t="shared" si="4"/>
-        <v>5.104428613351164E-2</v>
+        <v>5.0041729278491313E-2</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="S37" s="32">
-        <v>0.76400000000000001</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="T37" s="33">
         <v>0</v>
       </c>
       <c r="U37" s="33">
         <f t="shared" si="5"/>
-        <v>1.0057537157705634</v>
+        <v>0.8831622860401166</v>
       </c>
       <c r="V37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="X37" s="32">
-        <v>0.70099999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="Y37" s="33">
         <v>0</v>
       </c>
       <c r="Z37" s="33">
         <f t="shared" si="6"/>
-        <v>0.86926400950258764</v>
+        <v>0.97295507452765662</v>
       </c>
       <c r="AA37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="AC37" s="35">
         <f t="shared" si="7"/>
-        <v>0.93750886263657551</v>
+        <v>0.92805868028388661</v>
       </c>
       <c r="AF37" s="36">
         <f t="shared" si="8"/>
-        <v>0.73249999999999993</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="AG37" s="36">
         <f t="shared" si="11"/>
-        <v>0.73407560648515713</v>
+        <v>0.72968750522655657</v>
       </c>
       <c r="AH37" s="36"/>
       <c r="AI37" s="30">
         <f t="shared" si="12"/>
-        <v>0.45025894705089881</v>
+        <v>0.44236038809701755</v>
       </c>
       <c r="AJ37" s="13" t="s">
         <v>43</v>
@@ -5297,7 +5297,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="O38" s="33">
-        <v>1.7399999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="P38" s="33">
         <f t="shared" si="4"/>
@@ -5307,14 +5307,14 @@
         <v>48</v>
       </c>
       <c r="S38" s="32">
-        <v>0.27300000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="T38" s="33">
-        <v>1.7299999999999999E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="U38" s="33">
         <f t="shared" si="5"/>
-        <v>0.28010256051194365</v>
+        <v>0.28118341065365632</v>
       </c>
       <c r="V38" s="8" t="s">
         <v>48</v>
@@ -5323,7 +5323,7 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="Y38" s="33">
-        <v>5.4000000000000003E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="Z38" s="33">
         <f t="shared" si="6"/>
@@ -5334,20 +5334,20 @@
       </c>
       <c r="AC38" s="35">
         <f t="shared" si="7"/>
-        <v>0.26448297475385707</v>
+        <v>0.26484325813442799</v>
       </c>
       <c r="AF38" s="36">
         <f t="shared" si="8"/>
-        <v>0.25833333333333336</v>
+        <v>0.25866666666666666</v>
       </c>
       <c r="AG38" s="36">
         <f t="shared" si="11"/>
-        <v>0.2584838076651686</v>
+        <v>0.25881998779347348</v>
       </c>
       <c r="AH38" s="36"/>
       <c r="AI38" s="30">
         <f t="shared" si="12"/>
-        <v>-2.5332851769089726E-2</v>
+        <v>-2.8507129336065529E-2</v>
       </c>
       <c r="AJ38" s="11" t="s">
         <v>44</v>
@@ -5364,18 +5364,16 @@
         <v>13</v>
       </c>
       <c r="D39" s="32">
-        <v>2.9000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E39" s="33">
-        <v>0.80010000000000003</v>
+        <v>0.8276</v>
       </c>
       <c r="F39" s="33">
         <f t="shared" si="2"/>
-        <v>2.9008133771362292E-2</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>2.4004609593180331E-2</v>
+      </c>
+      <c r="G39" s="8"/>
       <c r="I39" s="32">
         <v>0.25900000000000001</v>
       </c>
@@ -5390,27 +5388,27 @@
         <v>48</v>
       </c>
       <c r="N39" s="32">
-        <v>0.46100000000000002</v>
+        <v>0.435</v>
       </c>
       <c r="O39" s="33">
         <v>0</v>
       </c>
       <c r="P39" s="33">
         <f t="shared" si="4"/>
-        <v>0.49858042042085132</v>
+        <v>0.46604719852364029</v>
       </c>
       <c r="Q39" s="8" t="s">
         <v>48</v>
       </c>
       <c r="S39" s="32">
-        <v>0.74299999999999999</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="T39" s="33">
         <v>0</v>
       </c>
       <c r="U39" s="33">
         <f t="shared" si="5"/>
-        <v>0.95714348031240049</v>
+        <v>0.95937957999468126</v>
       </c>
       <c r="V39" s="8" t="s">
         <v>48</v>
@@ -5430,20 +5428,20 @@
       </c>
       <c r="AC39" s="35">
         <f t="shared" si="7"/>
-        <v>0.52819935543232299</v>
+        <v>0.64542288029383055</v>
       </c>
       <c r="AF39" s="36">
         <f t="shared" si="8"/>
-        <v>0.44079999999999997</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="AG39" s="36">
         <f t="shared" si="11"/>
-        <v>0.48400346598670385</v>
+        <v>0.56858061705713892</v>
       </c>
       <c r="AH39" s="36"/>
       <c r="AI39" s="30">
         <f t="shared" si="12"/>
-        <v>0.20018680655244553</v>
+        <v>0.2812534999275999</v>
       </c>
       <c r="AJ39" s="11" t="s">
         <v>30</v>
@@ -5460,14 +5458,14 @@
         <v>2</v>
       </c>
       <c r="D40" s="32">
-        <v>0.11899999999999999</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="E40" s="33">
-        <v>0.30769999999999997</v>
+        <v>0.25019999999999998</v>
       </c>
       <c r="F40" s="33">
         <f t="shared" si="2"/>
-        <v>0.11956654118787284</v>
+        <v>0.13175717542536419</v>
       </c>
       <c r="G40" s="8"/>
       <c r="I40" s="32">
@@ -5482,56 +5480,56 @@
       </c>
       <c r="L40" s="8"/>
       <c r="N40" s="32">
-        <v>0.17399999999999999</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="O40" s="33">
-        <v>8.0399999999999999E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="P40" s="33">
         <f t="shared" si="4"/>
-        <v>0.17578861343353175</v>
+        <v>0.17785179927455019</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="S40" s="32">
-        <v>0.24299999999999999</v>
+        <v>0.254</v>
       </c>
       <c r="T40" s="33">
-        <v>4.0399999999999998E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="U40" s="33">
         <f t="shared" si="5"/>
-        <v>0.24795991903663112</v>
+        <v>0.25968406049455256</v>
       </c>
       <c r="V40" s="8" t="s">
         <v>48</v>
       </c>
       <c r="X40" s="32">
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
       <c r="Y40" s="33">
-        <v>0.1326</v>
+        <v>0.1239</v>
       </c>
       <c r="Z40" s="33">
         <f t="shared" si="6"/>
-        <v>0.15421091280850238</v>
+        <v>0.15523504373091074</v>
       </c>
       <c r="AA40" s="8"/>
       <c r="AC40" s="35">
         <f t="shared" si="7"/>
-        <v>0.24795991903663112</v>
+        <v>0.25968406049455256</v>
       </c>
       <c r="AF40" s="36">
         <f t="shared" si="8"/>
-        <v>0.24299999999999999</v>
+        <v>0.254</v>
       </c>
       <c r="AG40" s="36">
         <f t="shared" si="11"/>
-        <v>0.24299999999999991</v>
+        <v>0.254</v>
       </c>
       <c r="AH40" s="36"/>
       <c r="AI40" s="30">
         <f t="shared" si="12"/>
-        <v>-4.0816659434258412E-2</v>
+        <v>-3.3327117129539008E-2</v>
       </c>
       <c r="AJ40" s="11" t="s">
         <v>41</v>
@@ -5581,45 +5579,45 @@
       </c>
       <c r="Q41" s="8"/>
       <c r="S41" s="32">
-        <v>0.123</v>
+        <v>0.125</v>
       </c>
       <c r="T41" s="33">
-        <v>0.2984</v>
+        <v>0.27750000000000002</v>
       </c>
       <c r="U41" s="33">
         <f t="shared" si="5"/>
-        <v>0.12362598118313008</v>
+        <v>0.12565721414045308</v>
       </c>
       <c r="V41" s="8"/>
       <c r="X41" s="32">
-        <v>9.9000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="Y41" s="33">
-        <v>0.33040000000000003</v>
+        <v>0.31759999999999999</v>
       </c>
       <c r="Z41" s="33">
         <f t="shared" si="6"/>
-        <v>9.9325348397641677E-2</v>
+        <v>0.10033534773107562</v>
       </c>
       <c r="AA41" s="8" t="s">
         <v>48</v>
       </c>
       <c r="AC41" s="35">
         <f t="shared" si="7"/>
-        <v>9.9325348397641677E-2</v>
+        <v>0.10033534773107562</v>
       </c>
       <c r="AF41" s="36">
         <f t="shared" si="8"/>
-        <v>9.9000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AG41" s="36">
         <f t="shared" si="11"/>
-        <v>9.8999999999999949E-2</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="AH41" s="36"/>
       <c r="AI41" s="30">
         <f t="shared" si="12"/>
-        <v>-0.18481665943425837</v>
+        <v>-0.18732711712953898</v>
       </c>
       <c r="AJ41" s="11" t="s">
         <v>40</v>
@@ -5669,27 +5667,29 @@
       </c>
       <c r="Q42" s="8"/>
       <c r="S42" s="32">
-        <v>0.17799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="T42" s="33">
-        <v>0.1361</v>
+        <v>0.12230000000000001</v>
       </c>
       <c r="U42" s="33">
         <f t="shared" si="5"/>
-        <v>0.17991648457767603</v>
+        <v>0.18198268860070574</v>
       </c>
       <c r="V42" s="8"/>
       <c r="X42" s="32">
-        <v>0.309</v>
+        <v>0.31</v>
       </c>
       <c r="Y42" s="33">
-        <v>2.5000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="Z42" s="33">
         <f t="shared" si="6"/>
-        <v>0.31943947107111492</v>
-      </c>
-      <c r="AA42" s="8"/>
+        <v>0.32054540930194614</v>
+      </c>
+      <c r="AA42" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="AC42" s="35">
         <v>0</v>
       </c>
@@ -5703,7 +5703,7 @@
       <c r="AH42" s="36"/>
       <c r="AI42" s="30">
         <f t="shared" si="12"/>
-        <v>-0.28381665943425832</v>
+        <v>-0.28732711712953901</v>
       </c>
       <c r="AJ42" s="11" t="s">
         <v>26</v>
@@ -5720,18 +5720,16 @@
         <v>7</v>
       </c>
       <c r="D43" s="32">
-        <v>5.6000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E43" s="33">
-        <v>0.63239999999999996</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="F43" s="33">
         <f t="shared" si="2"/>
-        <v>5.6058649060353107E-2</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>4.9039272925453445E-2</v>
+      </c>
+      <c r="G43" s="8"/>
       <c r="I43" s="32">
         <v>0</v>
       </c>
@@ -5744,56 +5742,58 @@
       </c>
       <c r="L43" s="8"/>
       <c r="N43" s="32">
-        <v>5.0999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="O43" s="33">
-        <v>0.61240000000000006</v>
+        <v>0.58989999999999998</v>
       </c>
       <c r="P43" s="33">
         <f t="shared" si="4"/>
-        <v>5.104428613351164E-2</v>
+        <v>5.4052580024714761E-2</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="S43" s="32">
-        <v>0.372</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="T43" s="33">
-        <v>1.6999999999999999E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="U43" s="33">
         <f t="shared" si="5"/>
-        <v>0.39074232090881589</v>
+        <v>0.43081237650398269</v>
       </c>
       <c r="V43" s="8" t="s">
         <v>48</v>
       </c>
       <c r="X43" s="32">
-        <v>0.29599999999999999</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="Y43" s="33">
-        <v>3.8E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="Z43" s="33">
         <f t="shared" si="6"/>
-        <v>0.30512976037708883</v>
-      </c>
-      <c r="AA43" s="8"/>
+        <v>0.29094026200800793</v>
+      </c>
+      <c r="AA43" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="AC43" s="35">
         <f t="shared" si="7"/>
-        <v>0.22340048498458451</v>
+        <v>0.36087631925599528</v>
       </c>
       <c r="AF43" s="36">
         <f t="shared" si="8"/>
-        <v>0.214</v>
+        <v>0.34450000000000003</v>
       </c>
       <c r="AG43" s="36">
         <f t="shared" si="11"/>
-        <v>0.219756734490861</v>
+        <v>0.34598568639798655</v>
       </c>
       <c r="AH43" s="36"/>
       <c r="AI43" s="30">
         <f t="shared" si="12"/>
-        <v>-6.4059924943397323E-2</v>
+        <v>5.8658569268447536E-2</v>
       </c>
       <c r="AJ43" s="11" t="s">
         <v>27</v>
@@ -6268,7 +6268,7 @@
       <c r="F57" s="33"/>
       <c r="G57" s="54">
         <f>COUNTIFS(G6:G54, "Y", B6:B54, "&lt;&gt;") / COUNTA(B6:B54)</f>
-        <v>0.25</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="33"/>
@@ -6296,7 +6296,7 @@
       <c r="Z57" s="33"/>
       <c r="AA57" s="54">
         <f>COUNTIFS(AA6:AA54, "Y", B6:B54, "&lt;&gt;") / COUNTA(B6:B54)</f>
-        <v>0.8571428571428571</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="AF57" s="32"/>
       <c r="AG57" s="32"/>
@@ -6312,7 +6312,7 @@
       <c r="E58" s="33"/>
       <c r="F58" s="32">
         <f>AVERAGEIFS(F6:F54,C6:C54, "&lt;&gt;ALL",G6:G54, "Y")</f>
-        <v>0.13881802656107367</v>
+        <v>0.17733188061916008</v>
       </c>
       <c r="G58" s="54"/>
       <c r="I58" s="32"/>
@@ -6326,21 +6326,21 @@
       <c r="O58" s="33"/>
       <c r="P58" s="32">
         <f>AVERAGEIFS(P6:P54,C6:C54, "&lt;&gt;ALL",Q6:Q54, "Y")</f>
-        <v>0.16457738177957171</v>
+        <v>0.16051072904242034</v>
       </c>
       <c r="Q58" s="54"/>
       <c r="S58" s="32"/>
       <c r="T58" s="33"/>
       <c r="U58" s="32">
         <f>AVERAGEIFS(U6:U54,C6:C54, "&lt;&gt;ALL",V6:V54, "Y")</f>
-        <v>0.42463340762475638</v>
+        <v>0.42108181379036863</v>
       </c>
       <c r="V58" s="54"/>
       <c r="X58" s="32"/>
       <c r="Y58" s="33"/>
       <c r="Z58" s="32">
         <f>AVERAGEIFS(Z6:Z54,C6:C54, "&lt;&gt;ALL",AA6:AA54, "Y")</f>
-        <v>0.40777596024175466</v>
+        <v>0.40345573481501334</v>
       </c>
       <c r="AA58" s="54"/>
       <c r="AF58" s="32"/>
@@ -6370,21 +6370,21 @@
       <c r="O59" s="33"/>
       <c r="P59" s="32">
         <f>AVERAGEIFS(P6:P54,C6:C54, "ALL",Q6:Q54, "Y")</f>
-        <v>0.12643983272282752</v>
+        <v>0.12576206120666333</v>
       </c>
       <c r="Q59" s="54"/>
       <c r="S59" s="32"/>
       <c r="T59" s="33"/>
       <c r="U59" s="32">
         <f>AVERAGEIFS(U6:U54,C6:C54, "ALL",V6:V54, "Y")</f>
-        <v>0.41328909624816967</v>
+        <v>0.41627863641940283</v>
       </c>
       <c r="V59" s="54"/>
       <c r="X59" s="32"/>
       <c r="Y59" s="33"/>
       <c r="Z59" s="32">
         <f>AVERAGEIFS(Z6:Z54,C6:C54, "ALL",AA6:AA54, "Y")</f>
-        <v>0.40126507740565492</v>
+        <v>0.40404952955193685</v>
       </c>
       <c r="AA59" s="54"/>
       <c r="AF59" s="32"/>
@@ -6426,12 +6426,12 @@
       </c>
       <c r="D61" s="36">
         <f>AVERAGEIFS(D:D,C:C, "&lt;&gt;ALL",G:G, "Y")</f>
-        <v>0.13585714285714287</v>
+        <v>0.17319999999999999</v>
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="36">
         <f>(EXP(2 * F58) - 1) / (EXP(2 * F58) + 1)</f>
-        <v>0.13793315168319317</v>
+        <v>0.17549614028425192</v>
       </c>
       <c r="G61" s="10"/>
       <c r="I61" s="36">
@@ -6446,32 +6446,32 @@
       <c r="L61" s="10"/>
       <c r="N61" s="36">
         <f>AVERAGEIFS(N:N,C:C, "&lt;&gt;ALL",Q:Q, "Y")</f>
-        <v>0.159</v>
+        <v>0.15575</v>
       </c>
       <c r="O61" s="38"/>
       <c r="P61" s="36">
         <f>(EXP(2 * P58) - 1) / (EXP(2 * P58) + 1)</f>
-        <v>0.16310740718897976</v>
+        <v>0.15914633824198249</v>
       </c>
       <c r="Q61" s="10"/>
       <c r="S61" s="36">
         <f>AVERAGEIFS(S:S,C:C, "&lt;&gt;ALL",V:V, "Y")</f>
-        <v>0.38131578947368427</v>
+        <v>0.38084210526315787</v>
       </c>
       <c r="T61" s="38"/>
       <c r="U61" s="36">
         <f>(EXP(2 * U58) - 1) / (EXP(2 * U58) + 1)</f>
-        <v>0.40082663525361234</v>
+        <v>0.3978414104227615</v>
       </c>
       <c r="V61" s="10"/>
       <c r="X61" s="36">
         <f>AVERAGEIFS(X:X,C:C, "&lt;&gt;ALL",AA:AA, "Y")</f>
-        <v>0.37066666666666664</v>
+        <v>0.36639130434782607</v>
       </c>
       <c r="Y61" s="38"/>
       <c r="Z61" s="36">
         <f>(EXP(2 * Z58) - 1) / (EXP(2 * Z58) + 1)</f>
-        <v>0.38658264273770149</v>
+        <v>0.3829019339821596</v>
       </c>
       <c r="AA61" s="10"/>
       <c r="AF61" s="36"/>
@@ -6504,32 +6504,32 @@
       <c r="L62" s="10"/>
       <c r="N62" s="36">
         <f>AVERAGEIFS(N:N,C:C, "ALL",Q:Q, "Y")</f>
-        <v>0.12566666666666668</v>
+        <v>0.125</v>
       </c>
       <c r="O62" s="38"/>
       <c r="P62" s="36">
         <f>(EXP(2 * P59) - 1) / (EXP(2 * P59) + 1)</f>
-        <v>0.12577031465193428</v>
+        <v>0.12510320747779741</v>
       </c>
       <c r="Q62" s="10"/>
       <c r="S62" s="36">
         <f>AVERAGEIFS(S:S,C:C, "ALL",V:V, "Y")</f>
-        <v>0.38766666666666666</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="T62" s="38"/>
       <c r="U62" s="36">
         <f>(EXP(2 * U59) - 1) / (EXP(2 * U59) + 1)</f>
-        <v>0.39126184174719353</v>
+        <v>0.39379076009155356</v>
       </c>
       <c r="V62" s="10"/>
       <c r="X62" s="36">
         <f>AVERAGEIFS(X:X,C:C, "ALL",AA:AA, "Y")</f>
-        <v>0.37966666666666665</v>
+        <v>0.38199999999999995</v>
       </c>
       <c r="Y62" s="38"/>
       <c r="Z62" s="36">
         <f>(EXP(2 * Z59) - 1) / (EXP(2 * Z59) + 1)</f>
-        <v>0.38103089092863707</v>
+        <v>0.38340855491472986</v>
       </c>
       <c r="AA62" s="10"/>
       <c r="AF62" s="36"/>
@@ -6756,79 +6756,79 @@
     </row>
     <row r="2" spans="1:21" ht="9" customHeight="1"/>
     <row r="3" spans="1:21" ht="63.6" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
       <c r="U3" s="60"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
-      <c r="A4" s="67" t="str">
+      <c r="A4" s="65" t="str">
         <f>'PCFMA SRC'!B3</f>
         <v>Persona</v>
       </c>
-      <c r="B4" s="67" t="str">
+      <c r="B4" s="65" t="str">
         <f>'PCFMA SRC'!C3</f>
         <v>Model</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="63" t="str">
         <f>'PCFMA SRC'!D3</f>
         <v>vanilla-mode3-01</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="24"/>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="63" t="str">
         <f>'PCFMA SRC'!I3</f>
         <v>base-mode3-01</v>
       </c>
-      <c r="H4" s="68"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="24"/>
-      <c r="J4" s="68" t="str">
+      <c r="J4" s="63" t="str">
         <f>'PCFMA SRC'!N3</f>
         <v>ext-mode3-01</v>
       </c>
-      <c r="K4" s="68"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="24"/>
-      <c r="M4" s="68" t="str">
+      <c r="M4" s="63" t="str">
         <f>'PCFMA SRC'!S3</f>
         <v>vanilla4-mode3-01</v>
       </c>
-      <c r="N4" s="68"/>
+      <c r="N4" s="63"/>
       <c r="O4" s="24"/>
-      <c r="P4" s="68" t="str">
+      <c r="P4" s="63" t="str">
         <f>'PCFMA SRC'!X3</f>
         <v>vanilla4o-mode3-01</v>
       </c>
-      <c r="Q4" s="68"/>
+      <c r="Q4" s="63"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="64" t="s">
         <v>65</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" s="23" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="52"/>
       <c r="D5" s="50" t="str">
         <f>'PCFMA SRC'!D4</f>
@@ -6874,7 +6874,7 @@
         <f>'PCFMA SRC'!Y4</f>
         <v>p</v>
       </c>
-      <c r="S5" s="69"/>
+      <c r="S5" s="64"/>
       <c r="T5" s="29"/>
       <c r="U5" s="12"/>
     </row>
@@ -8807,11 +8807,11 @@
       <c r="C37" s="8"/>
       <c r="D37" s="19">
         <f>'PCFMA SRC'!D36</f>
-        <v>7.5999999999999998E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E37" s="15">
         <f>'PCFMA SRC'!E36</f>
-        <v>7.9399999999999998E-2</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="19">
@@ -8825,7 +8825,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="19">
         <f>'PCFMA SRC'!N36</f>
-        <v>0.129</v>
+        <v>0.127</v>
       </c>
       <c r="K37" s="15">
         <f>'PCFMA SRC'!O36</f>
@@ -8834,7 +8834,7 @@
       <c r="L37" s="8"/>
       <c r="M37" s="19">
         <f>'PCFMA SRC'!S36</f>
-        <v>0.46500000000000002</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="N37" s="15">
         <f>'PCFMA SRC'!T36</f>
@@ -8843,7 +8843,7 @@
       <c r="O37" s="8"/>
       <c r="P37" s="19">
         <f>'PCFMA SRC'!X36</f>
-        <v>0.39900000000000002</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="Q37" s="15">
         <f>'PCFMA SRC'!Y36</f>
@@ -8852,7 +8852,7 @@
       <c r="R37" s="8"/>
       <c r="S37" s="56">
         <f>'PCFMA SRC'!AG36</f>
-        <v>0.28381665943425832</v>
+        <v>0.28732711712953901</v>
       </c>
       <c r="T37" s="30"/>
       <c r="U37" s="11" t="str">
@@ -8872,11 +8872,11 @@
       <c r="C38" s="8"/>
       <c r="D38" s="19">
         <f>'PCFMA SRC'!D37</f>
-        <v>5.6000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E38" s="15">
         <f>'PCFMA SRC'!E37</f>
-        <v>0.62380000000000002</v>
+        <v>0.86409999999999998</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="19">
@@ -8890,16 +8890,16 @@
       <c r="I38" s="8"/>
       <c r="J38" s="19">
         <f>'PCFMA SRC'!N37</f>
-        <v>5.0999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K38" s="15">
         <f>'PCFMA SRC'!O37</f>
-        <v>0.5988</v>
+        <v>0.60929999999999995</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="19">
         <f>'PCFMA SRC'!S37</f>
-        <v>0.76400000000000001</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="N38" s="15">
         <f>'PCFMA SRC'!T37</f>
@@ -8908,7 +8908,7 @@
       <c r="O38" s="8"/>
       <c r="P38" s="19">
         <f>'PCFMA SRC'!X37</f>
-        <v>0.70099999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="Q38" s="15">
         <f>'PCFMA SRC'!Y37</f>
@@ -8917,11 +8917,11 @@
       <c r="R38" s="8"/>
       <c r="S38" s="56">
         <f>'PCFMA SRC'!AG37</f>
-        <v>0.73407560648515713</v>
+        <v>0.72968750522655657</v>
       </c>
       <c r="T38" s="30">
         <f>'PCFMA SRC'!AI37</f>
-        <v>0.45025894705089881</v>
+        <v>0.44236038809701755</v>
       </c>
       <c r="U38" s="11" t="str">
         <f>'PCFMA SRC'!AJ37</f>
@@ -8962,16 +8962,16 @@
       </c>
       <c r="K39" s="15">
         <f>'PCFMA SRC'!O38</f>
-        <v>1.7399999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="19">
         <f>'PCFMA SRC'!S38</f>
-        <v>0.27300000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="N39" s="15">
         <f>'PCFMA SRC'!T38</f>
-        <v>1.7299999999999999E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="O39" s="8"/>
       <c r="P39" s="19">
@@ -8980,16 +8980,16 @@
       </c>
       <c r="Q39" s="15">
         <f>'PCFMA SRC'!Y38</f>
-        <v>5.4000000000000003E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="R39" s="8"/>
       <c r="S39" s="56">
         <f>'PCFMA SRC'!AG38</f>
-        <v>0.2584838076651686</v>
+        <v>0.25881998779347348</v>
       </c>
       <c r="T39" s="30">
         <f>'PCFMA SRC'!AI38</f>
-        <v>-2.5332851769089726E-2</v>
+        <v>-2.8507129336065529E-2</v>
       </c>
       <c r="U39" s="11" t="str">
         <f>'PCFMA SRC'!AJ38</f>
@@ -9008,11 +9008,11 @@
       <c r="C40" s="8"/>
       <c r="D40" s="19">
         <f>'PCFMA SRC'!D39</f>
-        <v>2.9000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E40" s="15">
         <f>'PCFMA SRC'!E39</f>
-        <v>0.80010000000000003</v>
+        <v>0.8276</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="19">
@@ -9026,7 +9026,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="19">
         <f>'PCFMA SRC'!N39</f>
-        <v>0.46100000000000002</v>
+        <v>0.435</v>
       </c>
       <c r="K40" s="15">
         <f>'PCFMA SRC'!O39</f>
@@ -9035,7 +9035,7 @@
       <c r="L40" s="8"/>
       <c r="M40" s="19">
         <f>'PCFMA SRC'!S39</f>
-        <v>0.74299999999999999</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="N40" s="15">
         <f>'PCFMA SRC'!T39</f>
@@ -9053,11 +9053,11 @@
       <c r="R40" s="8"/>
       <c r="S40" s="56">
         <f>'PCFMA SRC'!AG39</f>
-        <v>0.48400346598670385</v>
+        <v>0.56858061705713892</v>
       </c>
       <c r="T40" s="30">
         <f>'PCFMA SRC'!AI39</f>
-        <v>0.20018680655244553</v>
+        <v>0.2812534999275999</v>
       </c>
       <c r="U40" s="11" t="str">
         <f>'PCFMA SRC'!AJ39</f>
@@ -9076,11 +9076,11 @@
       <c r="C41" s="8"/>
       <c r="D41" s="19">
         <f>'PCFMA SRC'!D40</f>
-        <v>0.11899999999999999</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="E41" s="15">
         <f>'PCFMA SRC'!E40</f>
-        <v>0.30769999999999997</v>
+        <v>0.25019999999999998</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="19">
@@ -9094,38 +9094,38 @@
       <c r="I41" s="8"/>
       <c r="J41" s="19">
         <f>'PCFMA SRC'!N40</f>
-        <v>0.17399999999999999</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="K41" s="15">
         <f>'PCFMA SRC'!O40</f>
-        <v>8.0399999999999999E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="19">
         <f>'PCFMA SRC'!S40</f>
-        <v>0.24299999999999999</v>
+        <v>0.254</v>
       </c>
       <c r="N41" s="15">
         <f>'PCFMA SRC'!T40</f>
-        <v>4.0399999999999998E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="O41" s="8"/>
       <c r="P41" s="19">
         <f>'PCFMA SRC'!X40</f>
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
       <c r="Q41" s="15">
         <f>'PCFMA SRC'!Y40</f>
-        <v>0.1326</v>
+        <v>0.1239</v>
       </c>
       <c r="R41" s="8"/>
       <c r="S41" s="56">
         <f>'PCFMA SRC'!AG40</f>
-        <v>0.24299999999999991</v>
+        <v>0.254</v>
       </c>
       <c r="T41" s="30">
         <f>'PCFMA SRC'!AI40</f>
-        <v>-4.0816659434258412E-2</v>
+        <v>-3.3327117129539008E-2</v>
       </c>
       <c r="U41" s="11" t="str">
         <f>'PCFMA SRC'!AJ40</f>
@@ -9171,29 +9171,29 @@
       <c r="L42" s="8"/>
       <c r="M42" s="19">
         <f>'PCFMA SRC'!S41</f>
-        <v>0.123</v>
+        <v>0.125</v>
       </c>
       <c r="N42" s="15">
         <f>'PCFMA SRC'!T41</f>
-        <v>0.2984</v>
+        <v>0.27750000000000002</v>
       </c>
       <c r="O42" s="8"/>
       <c r="P42" s="19">
         <f>'PCFMA SRC'!X41</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="Q42" s="15">
         <f>'PCFMA SRC'!Y41</f>
-        <v>0.33040000000000003</v>
+        <v>0.31759999999999999</v>
       </c>
       <c r="R42" s="8"/>
       <c r="S42" s="56">
         <f>'PCFMA SRC'!AG41</f>
-        <v>9.8999999999999949E-2</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="T42" s="30">
         <f>'PCFMA SRC'!AI41</f>
-        <v>-0.18481665943425837</v>
+        <v>-0.18732711712953898</v>
       </c>
       <c r="U42" s="11" t="str">
         <f>'PCFMA SRC'!AJ41</f>
@@ -9239,20 +9239,20 @@
       <c r="L43" s="8"/>
       <c r="M43" s="19">
         <f>'PCFMA SRC'!S42</f>
-        <v>0.17799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="N43" s="15">
         <f>'PCFMA SRC'!T42</f>
-        <v>0.1361</v>
+        <v>0.12230000000000001</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="19">
         <f>'PCFMA SRC'!X42</f>
-        <v>0.309</v>
+        <v>0.31</v>
       </c>
       <c r="Q43" s="15">
         <f>'PCFMA SRC'!Y42</f>
-        <v>2.5000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="R43" s="8"/>
       <c r="S43" s="56">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="T43" s="30">
         <f>'PCFMA SRC'!AI42</f>
-        <v>-0.28381665943425832</v>
+        <v>-0.28732711712953901</v>
       </c>
       <c r="U43" s="11" t="str">
         <f>'PCFMA SRC'!AJ42</f>
@@ -9280,11 +9280,11 @@
       <c r="C44" s="8"/>
       <c r="D44" s="19">
         <f>'PCFMA SRC'!D43</f>
-        <v>5.6000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E44" s="15">
         <f>'PCFMA SRC'!E43</f>
-        <v>0.63239999999999996</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="19">
@@ -9298,38 +9298,38 @@
       <c r="I44" s="8"/>
       <c r="J44" s="19">
         <f>'PCFMA SRC'!N43</f>
-        <v>5.0999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="K44" s="15">
         <f>'PCFMA SRC'!O43</f>
-        <v>0.61240000000000006</v>
+        <v>0.58989999999999998</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="19">
         <f>'PCFMA SRC'!S43</f>
-        <v>0.372</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="N44" s="15">
         <f>'PCFMA SRC'!T43</f>
-        <v>1.6999999999999999E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="19">
         <f>'PCFMA SRC'!X43</f>
-        <v>0.29599999999999999</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="Q44" s="15">
         <f>'PCFMA SRC'!Y43</f>
-        <v>3.8E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="R44" s="8"/>
       <c r="S44" s="56">
         <f>'PCFMA SRC'!AG43</f>
-        <v>0.219756734490861</v>
+        <v>0.34598568639798655</v>
       </c>
       <c r="T44" s="30">
         <f>'PCFMA SRC'!AI43</f>
-        <v>-6.4059924943397323E-2</v>
+        <v>5.8658569268447536E-2</v>
       </c>
       <c r="U44" s="11" t="str">
         <f>'PCFMA SRC'!AJ43</f>
@@ -10060,41 +10060,41 @@
       <c r="U56" s="11"/>
     </row>
     <row r="57" spans="1:23" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A57" s="64" t="str">
+      <c r="A57" s="68" t="str">
         <f>'PCFMA SRC'!$B$65</f>
         <v>Model label:</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="65" t="str">
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="67" t="str">
         <f>'PCFMA SRC'!D65</f>
         <v>V-M3</v>
       </c>
-      <c r="E57" s="65"/>
+      <c r="E57" s="67"/>
       <c r="F57" s="47"/>
-      <c r="G57" s="65" t="str">
+      <c r="G57" s="67" t="str">
         <f>'PCFMA SRC'!I65</f>
         <v>B-M3</v>
       </c>
-      <c r="H57" s="65"/>
+      <c r="H57" s="67"/>
       <c r="I57" s="47"/>
-      <c r="J57" s="65" t="str">
+      <c r="J57" s="67" t="str">
         <f>'PCFMA SRC'!N65</f>
         <v>E-M3</v>
       </c>
-      <c r="K57" s="65"/>
+      <c r="K57" s="67"/>
       <c r="L57" s="47"/>
-      <c r="M57" s="65" t="str">
+      <c r="M57" s="67" t="str">
         <f>'PCFMA SRC'!S65</f>
         <v>V4-M3</v>
       </c>
-      <c r="N57" s="65"/>
+      <c r="N57" s="67"/>
       <c r="O57" s="47"/>
-      <c r="P57" s="65" t="str">
+      <c r="P57" s="67" t="str">
         <f>'PCFMA SRC'!X65</f>
         <v>V4o-M3</v>
       </c>
-      <c r="Q57" s="65"/>
+      <c r="Q57" s="67"/>
       <c r="R57" s="8"/>
       <c r="S57" s="19"/>
       <c r="T57" s="44"/>
@@ -10103,41 +10103,41 @@
       <c r="W57" s="43"/>
     </row>
     <row r="58" spans="1:23" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="64" t="str">
+      <c r="A58" s="68" t="str">
         <f>'PCFMA SRC'!$B$57</f>
         <v>Percentage of significant rows:</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="66">
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="69">
         <f>'PCFMA SRC'!G57</f>
-        <v>0.25</v>
-      </c>
-      <c r="E58" s="66"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="E58" s="69"/>
       <c r="F58" s="55"/>
-      <c r="G58" s="66">
+      <c r="G58" s="69">
         <f>'PCFMA SRC'!L57</f>
         <v>0.32142857142857145</v>
       </c>
-      <c r="H58" s="66"/>
+      <c r="H58" s="69"/>
       <c r="I58" s="55"/>
-      <c r="J58" s="66">
+      <c r="J58" s="69">
         <f>'PCFMA SRC'!Q57</f>
         <v>0.39285714285714285</v>
       </c>
-      <c r="K58" s="66"/>
+      <c r="K58" s="69"/>
       <c r="L58" s="55"/>
-      <c r="M58" s="66">
+      <c r="M58" s="69">
         <f>'PCFMA SRC'!V57</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="N58" s="66"/>
+      <c r="N58" s="69"/>
       <c r="O58" s="55"/>
-      <c r="P58" s="66">
+      <c r="P58" s="69">
         <f>'PCFMA SRC'!AA57</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Q58" s="66"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q58" s="69"/>
       <c r="R58" s="8"/>
       <c r="S58" s="19"/>
       <c r="T58" s="44"/>
@@ -10145,82 +10145,82 @@
       <c r="V58" s="43"/>
     </row>
     <row r="59" spans="1:23" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A59" s="64" t="str">
+      <c r="A59" s="68" t="str">
         <f>'PCFMA SRC'!B61</f>
         <v>Mean phi (significant only, excl. ALL):</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="63">
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="70">
         <f>'PCFMA SRC'!D61</f>
-        <v>0.13585714285714287</v>
-      </c>
-      <c r="E59" s="63"/>
+        <v>0.17319999999999999</v>
+      </c>
+      <c r="E59" s="70"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="63">
+      <c r="G59" s="70">
         <f>'PCFMA SRC'!I61</f>
         <v>0.18833333333333332</v>
       </c>
-      <c r="H59" s="63"/>
+      <c r="H59" s="70"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="63">
+      <c r="J59" s="70">
         <f>'PCFMA SRC'!N61</f>
-        <v>0.159</v>
-      </c>
-      <c r="K59" s="63"/>
+        <v>0.15575</v>
+      </c>
+      <c r="K59" s="70"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="63">
+      <c r="M59" s="70">
         <f>'PCFMA SRC'!S61</f>
-        <v>0.38131578947368427</v>
-      </c>
-      <c r="N59" s="63"/>
+        <v>0.38084210526315787</v>
+      </c>
+      <c r="N59" s="70"/>
       <c r="O59" s="10"/>
-      <c r="P59" s="63">
+      <c r="P59" s="70">
         <f>'PCFMA SRC'!X61</f>
-        <v>0.37066666666666664</v>
-      </c>
-      <c r="Q59" s="63"/>
+        <v>0.36639130434782607</v>
+      </c>
+      <c r="Q59" s="70"/>
       <c r="R59" s="10"/>
       <c r="S59" s="56"/>
       <c r="T59" s="31"/>
       <c r="U59" s="11"/>
     </row>
     <row r="60" spans="1:23" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A60" s="64" t="str">
+      <c r="A60" s="68" t="str">
         <f>'PCFMA SRC'!B62</f>
         <v>Mean phi (significant only, ALL only):</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="63" t="str">
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="70" t="str">
         <f>'PCFMA SRC'!D62</f>
         <v>n/a</v>
       </c>
-      <c r="E60" s="63"/>
+      <c r="E60" s="70"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="63">
+      <c r="G60" s="70">
         <f>'PCFMA SRC'!I62</f>
         <v>9.5333333333333325E-2</v>
       </c>
-      <c r="H60" s="63"/>
+      <c r="H60" s="70"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="63">
+      <c r="J60" s="70">
         <f>'PCFMA SRC'!N62</f>
-        <v>0.12566666666666668</v>
-      </c>
-      <c r="K60" s="63"/>
+        <v>0.125</v>
+      </c>
+      <c r="K60" s="70"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="63">
+      <c r="M60" s="70">
         <f>'PCFMA SRC'!S62</f>
-        <v>0.38766666666666666</v>
-      </c>
-      <c r="N60" s="63"/>
+        <v>0.38999999999999996</v>
+      </c>
+      <c r="N60" s="70"/>
       <c r="O60" s="10"/>
-      <c r="P60" s="63">
+      <c r="P60" s="70">
         <f>'PCFMA SRC'!X62</f>
-        <v>0.37966666666666665</v>
-      </c>
-      <c r="Q60" s="63"/>
+        <v>0.38199999999999995</v>
+      </c>
+      <c r="Q60" s="70"/>
       <c r="R60" s="10"/>
       <c r="S60" s="56"/>
       <c r="T60" s="31"/>
@@ -10362,15 +10362,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
     <mergeCell ref="P57:Q57"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="D58:E58"/>
@@ -10383,18 +10386,15 @@
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="M57:N57"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10405,7 +10405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>

--- a/study/data/stats/combined/stats-combined-eval-agreement-m3.xlsx
+++ b/study/data/stats/combined/stats-combined-eval-agreement-m3.xlsx
@@ -743,6 +743,18 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,18 +766,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,24 +904,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152954752"/>
-        <c:axId val="152956288"/>
+        <c:axId val="126983552"/>
+        <c:axId val="126993536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152954752"/>
+        <c:axId val="126983552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152956288"/>
+        <c:crossAx val="126993536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152956288"/>
+        <c:axId val="126993536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -931,7 +931,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152954752"/>
+        <c:crossAx val="126983552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -941,7 +941,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1027,24 +1027,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1100" b="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1087,15 +1069,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('PCFMA SRC'!$F$62,'PCFMA SRC'!$K$61,'PCFMA SRC'!$P$62,'PCFMA SRC'!$U$62,'PCFMA SRC'!$Z$62)</c:f>
+              <c:f>('PCFMA SRC'!$F$61,'PCFMA SRC'!$K$62,'PCFMA SRC'!$P$62,'PCFMA SRC'!$U$62,'PCFMA SRC'!$Z$62)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.17549614028425192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18876172366952312</c:v>
+                  <c:v>9.5351949915234283E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.12510320747779741</c:v>
@@ -1112,24 +1094,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="187055488"/>
-        <c:axId val="52442240"/>
+        <c:axId val="128279680"/>
+        <c:axId val="128281216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187055488"/>
+        <c:axId val="128279680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52442240"/>
+        <c:crossAx val="128281216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52442240"/>
+        <c:axId val="128281216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000062"/>
@@ -1138,7 +1120,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187055488"/>
+        <c:crossAx val="128279680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1148,7 +1130,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1301,11 +1283,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="52454144"/>
-        <c:axId val="52455680"/>
+        <c:axId val="128305408"/>
+        <c:axId val="128315392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52454144"/>
+        <c:axId val="128305408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,14 +1306,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52455680"/>
+        <c:crossAx val="128315392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52455680"/>
+        <c:axId val="128315392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.85000000000000064"/>
@@ -1341,7 +1323,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52454144"/>
+        <c:crossAx val="128305408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1351,7 +1333,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1516,11 +1498,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="52463488"/>
-        <c:axId val="52465024"/>
+        <c:axId val="126750080"/>
+        <c:axId val="126788736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52463488"/>
+        <c:axId val="126750080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,14 +1521,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52465024"/>
+        <c:crossAx val="126788736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52465024"/>
+        <c:axId val="126788736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.92"/>
@@ -1556,7 +1538,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52463488"/>
+        <c:crossAx val="126750080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1566,7 +1548,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1613,7 +1595,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.55806368597208067"/>
+          <c:x val="0.55806368597208056"/>
           <c:y val="6.6076008791583957E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1713,11 +1695,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="52489216"/>
-        <c:axId val="52491008"/>
+        <c:axId val="126808832"/>
+        <c:axId val="126810368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52489216"/>
+        <c:axId val="126808832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,14 +1718,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52491008"/>
+        <c:crossAx val="126810368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52491008"/>
+        <c:axId val="126810368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1753,7 +1735,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52489216"/>
+        <c:crossAx val="126808832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1763,7 +1745,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1811,7 +1793,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361409E-2"/>
+          <c:y val="6.3365921852361437E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1904,11 +1886,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="52572544"/>
-        <c:axId val="52574080"/>
+        <c:axId val="128690048"/>
+        <c:axId val="128691584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52572544"/>
+        <c:axId val="128690048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,14 +1909,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52574080"/>
+        <c:crossAx val="128691584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52574080"/>
+        <c:axId val="128691584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1944,7 +1926,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52572544"/>
+        <c:crossAx val="128690048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1954,7 +1936,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2002,7 +1984,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361465E-2"/>
+          <c:y val="6.3365921852361493E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2113,11 +2095,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="52598272"/>
-        <c:axId val="52599808"/>
+        <c:axId val="128707584"/>
+        <c:axId val="128713472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52598272"/>
+        <c:axId val="128707584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,14 +2118,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52599808"/>
+        <c:crossAx val="128713472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52599808"/>
+        <c:axId val="128713472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2153,7 +2135,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52598272"/>
+        <c:crossAx val="128707584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2163,7 +2145,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2671,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AA44" sqref="AA44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6720,8 +6702,8 @@
   </sheetPr>
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:C59"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6756,79 +6738,79 @@
     </row>
     <row r="2" spans="1:21" ht="9" customHeight="1"/>
     <row r="3" spans="1:21" ht="63.6" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
       <c r="U3" s="60"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
-      <c r="A4" s="65" t="str">
+      <c r="A4" s="69" t="str">
         <f>'PCFMA SRC'!B3</f>
         <v>Persona</v>
       </c>
-      <c r="B4" s="65" t="str">
+      <c r="B4" s="69" t="str">
         <f>'PCFMA SRC'!C3</f>
         <v>Model</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="63" t="str">
+      <c r="D4" s="67" t="str">
         <f>'PCFMA SRC'!D3</f>
         <v>vanilla-mode3-01</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="24"/>
-      <c r="G4" s="63" t="str">
+      <c r="G4" s="67" t="str">
         <f>'PCFMA SRC'!I3</f>
         <v>base-mode3-01</v>
       </c>
-      <c r="H4" s="63"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="24"/>
-      <c r="J4" s="63" t="str">
+      <c r="J4" s="67" t="str">
         <f>'PCFMA SRC'!N3</f>
         <v>ext-mode3-01</v>
       </c>
-      <c r="K4" s="63"/>
+      <c r="K4" s="67"/>
       <c r="L4" s="24"/>
-      <c r="M4" s="63" t="str">
+      <c r="M4" s="67" t="str">
         <f>'PCFMA SRC'!S3</f>
         <v>vanilla4-mode3-01</v>
       </c>
-      <c r="N4" s="63"/>
+      <c r="N4" s="67"/>
       <c r="O4" s="24"/>
-      <c r="P4" s="63" t="str">
+      <c r="P4" s="67" t="str">
         <f>'PCFMA SRC'!X3</f>
         <v>vanilla4o-mode3-01</v>
       </c>
-      <c r="Q4" s="63"/>
+      <c r="Q4" s="67"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="68" t="s">
         <v>65</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" s="23" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="52"/>
       <c r="D5" s="50" t="str">
         <f>'PCFMA SRC'!D4</f>
@@ -6874,7 +6856,7 @@
         <f>'PCFMA SRC'!Y4</f>
         <v>p</v>
       </c>
-      <c r="S5" s="64"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="29"/>
       <c r="U5" s="12"/>
     </row>
@@ -10060,41 +10042,41 @@
       <c r="U56" s="11"/>
     </row>
     <row r="57" spans="1:23" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A57" s="68" t="str">
+      <c r="A57" s="64" t="str">
         <f>'PCFMA SRC'!$B$65</f>
         <v>Model label:</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="67" t="str">
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65" t="str">
         <f>'PCFMA SRC'!D65</f>
         <v>V-M3</v>
       </c>
-      <c r="E57" s="67"/>
+      <c r="E57" s="65"/>
       <c r="F57" s="47"/>
-      <c r="G57" s="67" t="str">
+      <c r="G57" s="65" t="str">
         <f>'PCFMA SRC'!I65</f>
         <v>B-M3</v>
       </c>
-      <c r="H57" s="67"/>
+      <c r="H57" s="65"/>
       <c r="I57" s="47"/>
-      <c r="J57" s="67" t="str">
+      <c r="J57" s="65" t="str">
         <f>'PCFMA SRC'!N65</f>
         <v>E-M3</v>
       </c>
-      <c r="K57" s="67"/>
+      <c r="K57" s="65"/>
       <c r="L57" s="47"/>
-      <c r="M57" s="67" t="str">
+      <c r="M57" s="65" t="str">
         <f>'PCFMA SRC'!S65</f>
         <v>V4-M3</v>
       </c>
-      <c r="N57" s="67"/>
+      <c r="N57" s="65"/>
       <c r="O57" s="47"/>
-      <c r="P57" s="67" t="str">
+      <c r="P57" s="65" t="str">
         <f>'PCFMA SRC'!X65</f>
         <v>V4o-M3</v>
       </c>
-      <c r="Q57" s="67"/>
+      <c r="Q57" s="65"/>
       <c r="R57" s="8"/>
       <c r="S57" s="19"/>
       <c r="T57" s="44"/>
@@ -10103,41 +10085,41 @@
       <c r="W57" s="43"/>
     </row>
     <row r="58" spans="1:23" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="68" t="str">
+      <c r="A58" s="64" t="str">
         <f>'PCFMA SRC'!$B$57</f>
         <v>Percentage of significant rows:</v>
       </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="69">
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="66">
         <f>'PCFMA SRC'!G57</f>
         <v>0.17857142857142858</v>
       </c>
-      <c r="E58" s="69"/>
+      <c r="E58" s="66"/>
       <c r="F58" s="55"/>
-      <c r="G58" s="69">
+      <c r="G58" s="66">
         <f>'PCFMA SRC'!L57</f>
         <v>0.32142857142857145</v>
       </c>
-      <c r="H58" s="69"/>
+      <c r="H58" s="66"/>
       <c r="I58" s="55"/>
-      <c r="J58" s="69">
+      <c r="J58" s="66">
         <f>'PCFMA SRC'!Q57</f>
         <v>0.39285714285714285</v>
       </c>
-      <c r="K58" s="69"/>
+      <c r="K58" s="66"/>
       <c r="L58" s="55"/>
-      <c r="M58" s="69">
+      <c r="M58" s="66">
         <f>'PCFMA SRC'!V57</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="N58" s="69"/>
+      <c r="N58" s="66"/>
       <c r="O58" s="55"/>
-      <c r="P58" s="69">
+      <c r="P58" s="66">
         <f>'PCFMA SRC'!AA57</f>
         <v>0.9285714285714286</v>
       </c>
-      <c r="Q58" s="69"/>
+      <c r="Q58" s="66"/>
       <c r="R58" s="8"/>
       <c r="S58" s="19"/>
       <c r="T58" s="44"/>
@@ -10145,82 +10127,82 @@
       <c r="V58" s="43"/>
     </row>
     <row r="59" spans="1:23" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A59" s="68" t="str">
+      <c r="A59" s="64" t="str">
         <f>'PCFMA SRC'!B61</f>
         <v>Mean phi (significant only, excl. ALL):</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="70">
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="63">
         <f>'PCFMA SRC'!D61</f>
         <v>0.17319999999999999</v>
       </c>
-      <c r="E59" s="70"/>
+      <c r="E59" s="63"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="70">
+      <c r="G59" s="63">
         <f>'PCFMA SRC'!I61</f>
         <v>0.18833333333333332</v>
       </c>
-      <c r="H59" s="70"/>
+      <c r="H59" s="63"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="70">
+      <c r="J59" s="63">
         <f>'PCFMA SRC'!N61</f>
         <v>0.15575</v>
       </c>
-      <c r="K59" s="70"/>
+      <c r="K59" s="63"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="70">
+      <c r="M59" s="63">
         <f>'PCFMA SRC'!S61</f>
         <v>0.38084210526315787</v>
       </c>
-      <c r="N59" s="70"/>
+      <c r="N59" s="63"/>
       <c r="O59" s="10"/>
-      <c r="P59" s="70">
+      <c r="P59" s="63">
         <f>'PCFMA SRC'!X61</f>
         <v>0.36639130434782607</v>
       </c>
-      <c r="Q59" s="70"/>
+      <c r="Q59" s="63"/>
       <c r="R59" s="10"/>
       <c r="S59" s="56"/>
       <c r="T59" s="31"/>
       <c r="U59" s="11"/>
     </row>
     <row r="60" spans="1:23" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A60" s="68" t="str">
+      <c r="A60" s="64" t="str">
         <f>'PCFMA SRC'!B62</f>
         <v>Mean phi (significant only, ALL only):</v>
       </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="70" t="str">
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="63" t="str">
         <f>'PCFMA SRC'!D62</f>
         <v>n/a</v>
       </c>
-      <c r="E60" s="70"/>
+      <c r="E60" s="63"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="70">
+      <c r="G60" s="63">
         <f>'PCFMA SRC'!I62</f>
         <v>9.5333333333333325E-2</v>
       </c>
-      <c r="H60" s="70"/>
+      <c r="H60" s="63"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="70">
+      <c r="J60" s="63">
         <f>'PCFMA SRC'!N62</f>
         <v>0.125</v>
       </c>
-      <c r="K60" s="70"/>
+      <c r="K60" s="63"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="70">
+      <c r="M60" s="63">
         <f>'PCFMA SRC'!S62</f>
         <v>0.38999999999999996</v>
       </c>
-      <c r="N60" s="70"/>
+      <c r="N60" s="63"/>
       <c r="O60" s="10"/>
-      <c r="P60" s="70">
+      <c r="P60" s="63">
         <f>'PCFMA SRC'!X62</f>
         <v>0.38199999999999995</v>
       </c>
-      <c r="Q60" s="70"/>
+      <c r="Q60" s="63"/>
       <c r="R60" s="10"/>
       <c r="S60" s="56"/>
       <c r="T60" s="31"/>
@@ -10362,6 +10344,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="D60:E60"/>
@@ -10374,27 +10377,6 @@
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="J59:K59"/>
     <mergeCell ref="M59:N59"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10405,8 +10387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
